--- a/Summary/HarvestAssessment/data/2020_HarvestReport.xlsx
+++ b/Summary/HarvestAssessment/data/2020_HarvestReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\RStudio\intertidal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\RStudio\intertidal\Summary\HarvestAssessment\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FC753B-A40D-4F9C-A48B-94CF0A9B2B76}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E93C0C-0331-4881-95C0-4BA6437EC62A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="840" windowWidth="42690" windowHeight="30525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9195" yWindow="1020" windowWidth="42690" windowHeight="30525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HarvestReport" sheetId="1" r:id="rId1"/>
@@ -4190,8 +4190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC8C8C8"/>
       </patternFill>
     </fill>
     <fill>
@@ -4224,19 +4223,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4536,57 +4531,16 @@
   <dimension ref="A1:AV190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1048510" sqref="R1048510"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="3.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="8" style="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="16384" width="11.42578125" style="5"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="22" max="22" width="28.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="2" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4608,7 +4562,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -4650,7 +4604,7 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="1" t="s">
@@ -4728,11 +4682,11 @@
       <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -4754,7 +4708,7 @@
       <c r="G2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I2" t="s">
@@ -4796,7 +4750,7 @@
       <c r="U2" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W2" t="s">
@@ -4874,11 +4828,11 @@
       <c r="AU2" t="s">
         <v>57</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AV2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -4900,7 +4854,7 @@
       <c r="G3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>63</v>
       </c>
       <c r="I3" t="s">
@@ -4942,7 +4896,7 @@
       <c r="U3" t="s">
         <v>55</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="V3" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W3" t="s">
@@ -5020,11 +4974,11 @@
       <c r="AU3" t="s">
         <v>57</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AV3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -5046,7 +5000,7 @@
       <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I4" t="s">
@@ -5088,7 +5042,7 @@
       <c r="U4" t="s">
         <v>55</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W4" t="s">
@@ -5166,11 +5120,11 @@
       <c r="AU4" t="s">
         <v>57</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AV4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -5192,7 +5146,7 @@
       <c r="G5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>95</v>
       </c>
       <c r="I5" t="s">
@@ -5234,7 +5188,7 @@
       <c r="U5" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W5" t="s">
@@ -5312,11 +5266,11 @@
       <c r="AU5" t="s">
         <v>57</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="AV5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>98</v>
       </c>
@@ -5338,7 +5292,7 @@
       <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>100</v>
       </c>
       <c r="I6" t="s">
@@ -5380,7 +5334,7 @@
       <c r="U6" t="s">
         <v>55</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W6" t="s">
@@ -5458,11 +5412,11 @@
       <c r="AU6" t="s">
         <v>57</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AV6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>103</v>
       </c>
@@ -5484,7 +5438,7 @@
       <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="3" t="s">
         <v>105</v>
       </c>
       <c r="I7" t="s">
@@ -5526,7 +5480,7 @@
       <c r="U7" t="s">
         <v>116</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="3" t="s">
         <v>117</v>
       </c>
       <c r="W7" t="s">
@@ -5604,11 +5558,11 @@
       <c r="AU7" t="s">
         <v>57</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AV7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -5630,7 +5584,7 @@
       <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I8" t="s">
@@ -5672,7 +5626,7 @@
       <c r="U8" t="s">
         <v>55</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W8" t="s">
@@ -5750,11 +5704,11 @@
       <c r="AU8" t="s">
         <v>57</v>
       </c>
-      <c r="AV8" s="4" t="s">
+      <c r="AV8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -5776,7 +5730,7 @@
       <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="3" t="s">
         <v>135</v>
       </c>
       <c r="I9" t="s">
@@ -5818,7 +5772,7 @@
       <c r="U9" t="s">
         <v>55</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W9" t="s">
@@ -5896,11 +5850,11 @@
       <c r="AU9" t="s">
         <v>57</v>
       </c>
-      <c r="AV9" s="4" t="s">
+      <c r="AV9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>138</v>
       </c>
@@ -5922,7 +5876,7 @@
       <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I10" t="s">
@@ -5964,7 +5918,7 @@
       <c r="U10" t="s">
         <v>55</v>
       </c>
-      <c r="V10" s="4" t="s">
+      <c r="V10" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W10" t="s">
@@ -6042,11 +5996,11 @@
       <c r="AU10" t="s">
         <v>57</v>
       </c>
-      <c r="AV10" s="4" t="s">
+      <c r="AV10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>140</v>
       </c>
@@ -6068,7 +6022,7 @@
       <c r="G11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I11" t="s">
@@ -6110,7 +6064,7 @@
       <c r="U11" t="s">
         <v>55</v>
       </c>
-      <c r="V11" s="4" t="s">
+      <c r="V11" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W11" t="s">
@@ -6188,11 +6142,11 @@
       <c r="AU11" t="s">
         <v>57</v>
       </c>
-      <c r="AV11" s="4" t="s">
+      <c r="AV11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -6214,7 +6168,7 @@
       <c r="G12" t="s">
         <v>51</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>144</v>
       </c>
       <c r="I12" t="s">
@@ -6256,7 +6210,7 @@
       <c r="U12" t="s">
         <v>55</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="V12" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W12" t="s">
@@ -6334,11 +6288,11 @@
       <c r="AU12" t="s">
         <v>57</v>
       </c>
-      <c r="AV12" s="4" t="s">
+      <c r="AV12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>147</v>
       </c>
@@ -6360,7 +6314,7 @@
       <c r="G13" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I13" t="s">
@@ -6402,7 +6356,7 @@
       <c r="U13" t="s">
         <v>55</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="V13" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W13" t="s">
@@ -6480,11 +6434,11 @@
       <c r="AU13" t="s">
         <v>57</v>
       </c>
-      <c r="AV13" s="4" t="s">
+      <c r="AV13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>149</v>
       </c>
@@ -6506,7 +6460,7 @@
       <c r="G14" t="s">
         <v>51</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="3" t="s">
         <v>151</v>
       </c>
       <c r="I14" t="s">
@@ -6548,7 +6502,7 @@
       <c r="U14" t="s">
         <v>55</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W14" t="s">
@@ -6626,11 +6580,11 @@
       <c r="AU14" t="s">
         <v>57</v>
       </c>
-      <c r="AV14" s="4" t="s">
+      <c r="AV14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>154</v>
       </c>
@@ -6652,7 +6606,7 @@
       <c r="G15" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I15" t="s">
@@ -6694,7 +6648,7 @@
       <c r="U15" t="s">
         <v>55</v>
       </c>
-      <c r="V15" s="4" t="s">
+      <c r="V15" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W15" t="s">
@@ -6772,11 +6726,11 @@
       <c r="AU15" t="s">
         <v>57</v>
       </c>
-      <c r="AV15" s="4" t="s">
+      <c r="AV15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>157</v>
       </c>
@@ -6798,7 +6752,7 @@
       <c r="G16" t="s">
         <v>51</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="3" t="s">
         <v>159</v>
       </c>
       <c r="I16" t="s">
@@ -6840,7 +6794,7 @@
       <c r="U16" t="s">
         <v>55</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W16" t="s">
@@ -6918,11 +6872,11 @@
       <c r="AU16" t="s">
         <v>57</v>
       </c>
-      <c r="AV16" s="4" t="s">
+      <c r="AV16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -6944,7 +6898,7 @@
       <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="3" t="s">
         <v>166</v>
       </c>
       <c r="I17" t="s">
@@ -6986,7 +6940,7 @@
       <c r="U17" t="s">
         <v>55</v>
       </c>
-      <c r="V17" s="4" t="s">
+      <c r="V17" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W17" t="s">
@@ -7064,11 +7018,11 @@
       <c r="AU17" t="s">
         <v>57</v>
       </c>
-      <c r="AV17" s="4" t="s">
+      <c r="AV17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>172</v>
       </c>
@@ -7090,7 +7044,7 @@
       <c r="G18" t="s">
         <v>51</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>174</v>
       </c>
       <c r="I18" t="s">
@@ -7132,7 +7086,7 @@
       <c r="U18" t="s">
         <v>177</v>
       </c>
-      <c r="V18" s="4" t="s">
+      <c r="V18" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W18" t="s">
@@ -7210,11 +7164,11 @@
       <c r="AU18" t="s">
         <v>57</v>
       </c>
-      <c r="AV18" s="4" t="s">
+      <c r="AV18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>181</v>
       </c>
@@ -7236,7 +7190,7 @@
       <c r="G19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I19" t="s">
@@ -7278,7 +7232,7 @@
       <c r="U19" t="s">
         <v>55</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="V19" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W19" t="s">
@@ -7356,11 +7310,11 @@
       <c r="AU19" t="s">
         <v>57</v>
       </c>
-      <c r="AV19" s="4" t="s">
+      <c r="AV19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>183</v>
       </c>
@@ -7382,7 +7336,7 @@
       <c r="G20" t="s">
         <v>51</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I20" t="s">
@@ -7424,7 +7378,7 @@
       <c r="U20" t="s">
         <v>195</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="V20" s="3" t="s">
         <v>196</v>
       </c>
       <c r="W20" t="s">
@@ -7502,11 +7456,11 @@
       <c r="AU20" t="s">
         <v>57</v>
       </c>
-      <c r="AV20" s="4" t="s">
+      <c r="AV20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>216</v>
       </c>
@@ -7528,7 +7482,7 @@
       <c r="G21" t="s">
         <v>51</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>218</v>
       </c>
       <c r="I21" t="s">
@@ -7570,7 +7524,7 @@
       <c r="U21" t="s">
         <v>221</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="V21" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W21" t="s">
@@ -7648,11 +7602,11 @@
       <c r="AU21" t="s">
         <v>57</v>
       </c>
-      <c r="AV21" s="4" t="s">
+      <c r="AV21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -7674,7 +7628,7 @@
       <c r="G22" t="s">
         <v>51</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I22" t="s">
@@ -7716,7 +7670,7 @@
       <c r="U22" t="s">
         <v>55</v>
       </c>
-      <c r="V22" s="4" t="s">
+      <c r="V22" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W22" t="s">
@@ -7794,11 +7748,11 @@
       <c r="AU22" t="s">
         <v>57</v>
       </c>
-      <c r="AV22" s="4" t="s">
+      <c r="AV22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>227</v>
       </c>
@@ -7820,7 +7774,7 @@
       <c r="G23" t="s">
         <v>51</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>229</v>
       </c>
       <c r="I23" t="s">
@@ -7862,7 +7816,7 @@
       <c r="U23" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="4" t="s">
+      <c r="V23" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W23" t="s">
@@ -7940,11 +7894,11 @@
       <c r="AU23" t="s">
         <v>57</v>
       </c>
-      <c r="AV23" s="4" t="s">
+      <c r="AV23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>232</v>
       </c>
@@ -7966,7 +7920,7 @@
       <c r="G24" t="s">
         <v>51</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>234</v>
       </c>
       <c r="I24" t="s">
@@ -8008,7 +7962,7 @@
       <c r="U24" t="s">
         <v>55</v>
       </c>
-      <c r="V24" s="4" t="s">
+      <c r="V24" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W24" t="s">
@@ -8086,11 +8040,11 @@
       <c r="AU24" t="s">
         <v>57</v>
       </c>
-      <c r="AV24" s="4" t="s">
+      <c r="AV24" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>237</v>
       </c>
@@ -8112,7 +8066,7 @@
       <c r="G25" t="s">
         <v>51</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>239</v>
       </c>
       <c r="I25" t="s">
@@ -8154,7 +8108,7 @@
       <c r="U25" t="s">
         <v>55</v>
       </c>
-      <c r="V25" s="4" t="s">
+      <c r="V25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W25" t="s">
@@ -8232,11 +8186,11 @@
       <c r="AU25" t="s">
         <v>57</v>
       </c>
-      <c r="AV25" s="4" t="s">
+      <c r="AV25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -8258,7 +8212,7 @@
       <c r="G26" t="s">
         <v>51</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>244</v>
       </c>
       <c r="I26" t="s">
@@ -8300,7 +8254,7 @@
       <c r="U26" t="s">
         <v>55</v>
       </c>
-      <c r="V26" s="4" t="s">
+      <c r="V26" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W26" t="s">
@@ -8378,11 +8332,11 @@
       <c r="AU26" t="s">
         <v>57</v>
       </c>
-      <c r="AV26" s="4" t="s">
+      <c r="AV26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>247</v>
       </c>
@@ -8404,7 +8358,7 @@
       <c r="G27" t="s">
         <v>51</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="3" t="s">
         <v>188</v>
       </c>
       <c r="I27" t="s">
@@ -8446,7 +8400,7 @@
       <c r="U27" t="s">
         <v>55</v>
       </c>
-      <c r="V27" s="4" t="s">
+      <c r="V27" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W27" t="s">
@@ -8524,11 +8478,11 @@
       <c r="AU27" t="s">
         <v>57</v>
       </c>
-      <c r="AV27" s="4" t="s">
+      <c r="AV27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>251</v>
       </c>
@@ -8550,7 +8504,7 @@
       <c r="G28" t="s">
         <v>51</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I28" t="s">
@@ -8592,7 +8546,7 @@
       <c r="U28" t="s">
         <v>55</v>
       </c>
-      <c r="V28" s="4" t="s">
+      <c r="V28" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W28" t="s">
@@ -8670,11 +8624,11 @@
       <c r="AU28" t="s">
         <v>57</v>
       </c>
-      <c r="AV28" s="4" t="s">
+      <c r="AV28" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>253</v>
       </c>
@@ -8696,7 +8650,7 @@
       <c r="G29" t="s">
         <v>51</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I29" t="s">
@@ -8738,7 +8692,7 @@
       <c r="U29" t="s">
         <v>55</v>
       </c>
-      <c r="V29" s="4" t="s">
+      <c r="V29" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W29" t="s">
@@ -8816,11 +8770,11 @@
       <c r="AU29" t="s">
         <v>57</v>
       </c>
-      <c r="AV29" s="4" t="s">
+      <c r="AV29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>255</v>
       </c>
@@ -8842,7 +8796,7 @@
       <c r="G30" t="s">
         <v>51</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I30" t="s">
@@ -8884,7 +8838,7 @@
       <c r="U30" t="s">
         <v>55</v>
       </c>
-      <c r="V30" s="4" t="s">
+      <c r="V30" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W30" t="s">
@@ -8962,11 +8916,11 @@
       <c r="AU30" t="s">
         <v>57</v>
       </c>
-      <c r="AV30" s="4" t="s">
+      <c r="AV30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>257</v>
       </c>
@@ -8988,7 +8942,7 @@
       <c r="G31" t="s">
         <v>51</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I31" t="s">
@@ -9030,7 +8984,7 @@
       <c r="U31" t="s">
         <v>55</v>
       </c>
-      <c r="V31" s="4" t="s">
+      <c r="V31" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W31" t="s">
@@ -9108,11 +9062,11 @@
       <c r="AU31" t="s">
         <v>57</v>
       </c>
-      <c r="AV31" s="4" t="s">
+      <c r="AV31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>259</v>
       </c>
@@ -9134,7 +9088,7 @@
       <c r="G32" t="s">
         <v>51</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I32" t="s">
@@ -9176,7 +9130,7 @@
       <c r="U32" t="s">
         <v>55</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="V32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W32" t="s">
@@ -9254,11 +9208,11 @@
       <c r="AU32" t="s">
         <v>57</v>
       </c>
-      <c r="AV32" s="4" t="s">
+      <c r="AV32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>261</v>
       </c>
@@ -9280,7 +9234,7 @@
       <c r="G33" t="s">
         <v>51</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I33" t="s">
@@ -9322,7 +9276,7 @@
       <c r="U33" t="s">
         <v>55</v>
       </c>
-      <c r="V33" s="4" t="s">
+      <c r="V33" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W33" t="s">
@@ -9400,11 +9354,11 @@
       <c r="AU33" t="s">
         <v>57</v>
       </c>
-      <c r="AV33" s="4" t="s">
+      <c r="AV33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>266</v>
       </c>
@@ -9426,7 +9380,7 @@
       <c r="G34" t="s">
         <v>51</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I34" t="s">
@@ -9468,7 +9422,7 @@
       <c r="U34" t="s">
         <v>55</v>
       </c>
-      <c r="V34" s="4" t="s">
+      <c r="V34" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W34" t="s">
@@ -9546,11 +9500,11 @@
       <c r="AU34" t="s">
         <v>57</v>
       </c>
-      <c r="AV34" s="4" t="s">
+      <c r="AV34" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>268</v>
       </c>
@@ -9572,7 +9526,7 @@
       <c r="G35" t="s">
         <v>51</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="3" t="s">
         <v>270</v>
       </c>
       <c r="I35" t="s">
@@ -9614,7 +9568,7 @@
       <c r="U35" t="s">
         <v>55</v>
       </c>
-      <c r="V35" s="4" t="s">
+      <c r="V35" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W35" t="s">
@@ -9692,11 +9646,11 @@
       <c r="AU35" t="s">
         <v>57</v>
       </c>
-      <c r="AV35" s="4" t="s">
+      <c r="AV35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>276</v>
       </c>
@@ -9718,7 +9672,7 @@
       <c r="G36" t="s">
         <v>51</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I36" t="s">
@@ -9760,7 +9714,7 @@
       <c r="U36" t="s">
         <v>55</v>
       </c>
-      <c r="V36" s="4" t="s">
+      <c r="V36" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W36" t="s">
@@ -9838,11 +9792,11 @@
       <c r="AU36" t="s">
         <v>57</v>
       </c>
-      <c r="AV36" s="4" t="s">
+      <c r="AV36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>278</v>
       </c>
@@ -9864,7 +9818,7 @@
       <c r="G37" t="s">
         <v>51</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I37" t="s">
@@ -9906,7 +9860,7 @@
       <c r="U37" t="s">
         <v>55</v>
       </c>
-      <c r="V37" s="4" t="s">
+      <c r="V37" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W37" t="s">
@@ -9984,11 +9938,11 @@
       <c r="AU37" t="s">
         <v>57</v>
       </c>
-      <c r="AV37" s="4" t="s">
+      <c r="AV37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>280</v>
       </c>
@@ -10010,7 +9964,7 @@
       <c r="G38" t="s">
         <v>51</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I38" t="s">
@@ -10052,7 +10006,7 @@
       <c r="U38" t="s">
         <v>55</v>
       </c>
-      <c r="V38" s="4" t="s">
+      <c r="V38" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W38" t="s">
@@ -10130,11 +10084,11 @@
       <c r="AU38" t="s">
         <v>57</v>
       </c>
-      <c r="AV38" s="4" t="s">
+      <c r="AV38" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>282</v>
       </c>
@@ -10156,7 +10110,7 @@
       <c r="G39" t="s">
         <v>51</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I39" t="s">
@@ -10198,7 +10152,7 @@
       <c r="U39" t="s">
         <v>55</v>
       </c>
-      <c r="V39" s="4" t="s">
+      <c r="V39" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W39" t="s">
@@ -10276,11 +10230,11 @@
       <c r="AU39" t="s">
         <v>57</v>
       </c>
-      <c r="AV39" s="4" t="s">
+      <c r="AV39" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>287</v>
       </c>
@@ -10302,7 +10256,7 @@
       <c r="G40" t="s">
         <v>51</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I40" t="s">
@@ -10344,7 +10298,7 @@
       <c r="U40" t="s">
         <v>55</v>
       </c>
-      <c r="V40" s="4" t="s">
+      <c r="V40" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W40" t="s">
@@ -10422,11 +10376,11 @@
       <c r="AU40" t="s">
         <v>57</v>
       </c>
-      <c r="AV40" s="4" t="s">
+      <c r="AV40" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>289</v>
       </c>
@@ -10448,7 +10402,7 @@
       <c r="G41" t="s">
         <v>51</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="3" t="s">
         <v>291</v>
       </c>
       <c r="I41" t="s">
@@ -10490,7 +10444,7 @@
       <c r="U41" t="s">
         <v>55</v>
       </c>
-      <c r="V41" s="4" t="s">
+      <c r="V41" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W41" t="s">
@@ -10568,11 +10522,11 @@
       <c r="AU41" t="s">
         <v>57</v>
       </c>
-      <c r="AV41" s="4" t="s">
+      <c r="AV41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>294</v>
       </c>
@@ -10594,7 +10548,7 @@
       <c r="G42" t="s">
         <v>51</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I42" t="s">
@@ -10636,7 +10590,7 @@
       <c r="U42" t="s">
         <v>55</v>
       </c>
-      <c r="V42" s="4" t="s">
+      <c r="V42" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W42" t="s">
@@ -10714,11 +10668,11 @@
       <c r="AU42" t="s">
         <v>57</v>
       </c>
-      <c r="AV42" s="4" t="s">
+      <c r="AV42" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>296</v>
       </c>
@@ -10740,7 +10694,7 @@
       <c r="G43" t="s">
         <v>51</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3" t="s">
         <v>298</v>
       </c>
       <c r="I43" t="s">
@@ -10782,7 +10736,7 @@
       <c r="U43" t="s">
         <v>55</v>
       </c>
-      <c r="V43" s="4" t="s">
+      <c r="V43" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W43" t="s">
@@ -10860,11 +10814,11 @@
       <c r="AU43" t="s">
         <v>57</v>
       </c>
-      <c r="AV43" s="4" t="s">
+      <c r="AV43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>300</v>
       </c>
@@ -10886,7 +10840,7 @@
       <c r="G44" t="s">
         <v>51</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I44" t="s">
@@ -10928,7 +10882,7 @@
       <c r="U44" t="s">
         <v>55</v>
       </c>
-      <c r="V44" s="4" t="s">
+      <c r="V44" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W44" t="s">
@@ -11006,11 +10960,11 @@
       <c r="AU44" t="s">
         <v>57</v>
       </c>
-      <c r="AV44" s="4" t="s">
+      <c r="AV44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>302</v>
       </c>
@@ -11032,7 +10986,7 @@
       <c r="G45" t="s">
         <v>51</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I45" t="s">
@@ -11074,7 +11028,7 @@
       <c r="U45" t="s">
         <v>55</v>
       </c>
-      <c r="V45" s="4" t="s">
+      <c r="V45" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W45" t="s">
@@ -11152,11 +11106,11 @@
       <c r="AU45" t="s">
         <v>57</v>
       </c>
-      <c r="AV45" s="4" t="s">
+      <c r="AV45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>304</v>
       </c>
@@ -11178,7 +11132,7 @@
       <c r="G46" t="s">
         <v>51</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="3" t="s">
         <v>306</v>
       </c>
       <c r="I46" t="s">
@@ -11220,7 +11174,7 @@
       <c r="U46" t="s">
         <v>309</v>
       </c>
-      <c r="V46" s="4" t="s">
+      <c r="V46" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W46" t="s">
@@ -11298,11 +11252,11 @@
       <c r="AU46" t="s">
         <v>57</v>
       </c>
-      <c r="AV46" s="4" t="s">
+      <c r="AV46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>313</v>
       </c>
@@ -11324,7 +11278,7 @@
       <c r="G47" t="s">
         <v>51</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="3" t="s">
         <v>315</v>
       </c>
       <c r="I47" t="s">
@@ -11366,7 +11320,7 @@
       <c r="U47" t="s">
         <v>324</v>
       </c>
-      <c r="V47" s="4" t="s">
+      <c r="V47" s="3" t="s">
         <v>325</v>
       </c>
       <c r="W47" t="s">
@@ -11444,11 +11398,11 @@
       <c r="AU47" t="s">
         <v>57</v>
       </c>
-      <c r="AV47" s="4" t="s">
+      <c r="AV47" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>333</v>
       </c>
@@ -11470,7 +11424,7 @@
       <c r="G48" t="s">
         <v>51</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I48" t="s">
@@ -11512,7 +11466,7 @@
       <c r="U48" t="s">
         <v>55</v>
       </c>
-      <c r="V48" s="4" t="s">
+      <c r="V48" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W48" t="s">
@@ -11590,11 +11544,11 @@
       <c r="AU48" t="s">
         <v>57</v>
       </c>
-      <c r="AV48" s="4" t="s">
+      <c r="AV48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>335</v>
       </c>
@@ -11616,7 +11570,7 @@
       <c r="G49" t="s">
         <v>51</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3" t="s">
         <v>337</v>
       </c>
       <c r="I49" t="s">
@@ -11658,7 +11612,7 @@
       <c r="U49" t="s">
         <v>340</v>
       </c>
-      <c r="V49" s="4" t="s">
+      <c r="V49" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W49" t="s">
@@ -11736,11 +11690,11 @@
       <c r="AU49" t="s">
         <v>57</v>
       </c>
-      <c r="AV49" s="4" t="s">
+      <c r="AV49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -11762,7 +11716,7 @@
       <c r="G50" t="s">
         <v>51</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I50" t="s">
@@ -11804,7 +11758,7 @@
       <c r="U50" t="s">
         <v>55</v>
       </c>
-      <c r="V50" s="4" t="s">
+      <c r="V50" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W50" t="s">
@@ -11882,11 +11836,11 @@
       <c r="AU50" t="s">
         <v>57</v>
       </c>
-      <c r="AV50" s="4" t="s">
+      <c r="AV50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>346</v>
       </c>
@@ -11908,7 +11862,7 @@
       <c r="G51" t="s">
         <v>51</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I51" t="s">
@@ -11950,7 +11904,7 @@
       <c r="U51" t="s">
         <v>55</v>
       </c>
-      <c r="V51" s="4" t="s">
+      <c r="V51" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W51" t="s">
@@ -12028,11 +11982,11 @@
       <c r="AU51" t="s">
         <v>57</v>
       </c>
-      <c r="AV51" s="4" t="s">
+      <c r="AV51" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -12054,7 +12008,7 @@
       <c r="G52" t="s">
         <v>51</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I52" t="s">
@@ -12096,7 +12050,7 @@
       <c r="U52" t="s">
         <v>55</v>
       </c>
-      <c r="V52" s="4" t="s">
+      <c r="V52" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W52" t="s">
@@ -12174,11 +12128,11 @@
       <c r="AU52" t="s">
         <v>57</v>
       </c>
-      <c r="AV52" s="4" t="s">
+      <c r="AV52" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>356</v>
       </c>
@@ -12200,7 +12154,7 @@
       <c r="G53" t="s">
         <v>51</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="3" t="s">
         <v>358</v>
       </c>
       <c r="I53" t="s">
@@ -12242,7 +12196,7 @@
       <c r="U53" t="s">
         <v>369</v>
       </c>
-      <c r="V53" s="4" t="s">
+      <c r="V53" s="3" t="s">
         <v>370</v>
       </c>
       <c r="W53" t="s">
@@ -12320,11 +12274,11 @@
       <c r="AU53" t="s">
         <v>386</v>
       </c>
-      <c r="AV53" s="4" t="s">
+      <c r="AV53" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="54" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>388</v>
       </c>
@@ -12346,7 +12300,7 @@
       <c r="G54" t="s">
         <v>51</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I54" t="s">
@@ -12388,7 +12342,7 @@
       <c r="U54" t="s">
         <v>55</v>
       </c>
-      <c r="V54" s="4" t="s">
+      <c r="V54" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W54" t="s">
@@ -12466,11 +12420,11 @@
       <c r="AU54" t="s">
         <v>57</v>
       </c>
-      <c r="AV54" s="4" t="s">
+      <c r="AV54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>390</v>
       </c>
@@ -12492,7 +12446,7 @@
       <c r="G55" t="s">
         <v>51</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="3" t="s">
         <v>392</v>
       </c>
       <c r="I55" t="s">
@@ -12534,7 +12488,7 @@
       <c r="U55" t="s">
         <v>55</v>
       </c>
-      <c r="V55" s="4" t="s">
+      <c r="V55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W55" t="s">
@@ -12612,11 +12566,11 @@
       <c r="AU55" t="s">
         <v>57</v>
       </c>
-      <c r="AV55" s="4" t="s">
+      <c r="AV55" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>395</v>
       </c>
@@ -12638,7 +12592,7 @@
       <c r="G56" t="s">
         <v>51</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I56" t="s">
@@ -12680,7 +12634,7 @@
       <c r="U56" t="s">
         <v>55</v>
       </c>
-      <c r="V56" s="4" t="s">
+      <c r="V56" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W56" t="s">
@@ -12758,11 +12712,11 @@
       <c r="AU56" t="s">
         <v>57</v>
       </c>
-      <c r="AV56" s="4" t="s">
+      <c r="AV56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>397</v>
       </c>
@@ -12784,7 +12738,7 @@
       <c r="G57" t="s">
         <v>51</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I57" t="s">
@@ -12826,7 +12780,7 @@
       <c r="U57" t="s">
         <v>55</v>
       </c>
-      <c r="V57" s="4" t="s">
+      <c r="V57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W57" t="s">
@@ -12904,11 +12858,11 @@
       <c r="AU57" t="s">
         <v>57</v>
       </c>
-      <c r="AV57" s="4" t="s">
+      <c r="AV57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>399</v>
       </c>
@@ -12930,7 +12884,7 @@
       <c r="G58" t="s">
         <v>51</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="3" t="s">
         <v>401</v>
       </c>
       <c r="I58" t="s">
@@ -12972,7 +12926,7 @@
       <c r="U58" t="s">
         <v>55</v>
       </c>
-      <c r="V58" s="4" t="s">
+      <c r="V58" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W58" t="s">
@@ -13050,11 +13004,11 @@
       <c r="AU58" t="s">
         <v>57</v>
       </c>
-      <c r="AV58" s="4" t="s">
+      <c r="AV58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>405</v>
       </c>
@@ -13076,7 +13030,7 @@
       <c r="G59" t="s">
         <v>51</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I59" t="s">
@@ -13118,7 +13072,7 @@
       <c r="U59" t="s">
         <v>55</v>
       </c>
-      <c r="V59" s="4" t="s">
+      <c r="V59" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W59" t="s">
@@ -13196,11 +13150,11 @@
       <c r="AU59" t="s">
         <v>57</v>
       </c>
-      <c r="AV59" s="4" t="s">
+      <c r="AV59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>410</v>
       </c>
@@ -13222,7 +13176,7 @@
       <c r="G60" t="s">
         <v>51</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="3" t="s">
         <v>412</v>
       </c>
       <c r="I60" t="s">
@@ -13264,7 +13218,7 @@
       <c r="U60" t="s">
         <v>419</v>
       </c>
-      <c r="V60" s="4" t="s">
+      <c r="V60" s="3" t="s">
         <v>420</v>
       </c>
       <c r="W60" t="s">
@@ -13342,11 +13296,11 @@
       <c r="AU60" t="s">
         <v>57</v>
       </c>
-      <c r="AV60" s="4" t="s">
+      <c r="AV60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>435</v>
       </c>
@@ -13368,7 +13322,7 @@
       <c r="G61" t="s">
         <v>51</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I61" t="s">
@@ -13410,7 +13364,7 @@
       <c r="U61" t="s">
         <v>55</v>
       </c>
-      <c r="V61" s="4" t="s">
+      <c r="V61" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W61" t="s">
@@ -13488,11 +13442,11 @@
       <c r="AU61" t="s">
         <v>57</v>
       </c>
-      <c r="AV61" s="4" t="s">
+      <c r="AV61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>437</v>
       </c>
@@ -13514,7 +13468,7 @@
       <c r="G62" t="s">
         <v>51</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="3" t="s">
         <v>439</v>
       </c>
       <c r="I62" t="s">
@@ -13556,7 +13510,7 @@
       <c r="U62" t="s">
         <v>447</v>
       </c>
-      <c r="V62" s="4" t="s">
+      <c r="V62" s="3" t="s">
         <v>448</v>
       </c>
       <c r="W62" t="s">
@@ -13634,11 +13588,11 @@
       <c r="AU62" t="s">
         <v>57</v>
       </c>
-      <c r="AV62" s="4" t="s">
+      <c r="AV62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>460</v>
       </c>
@@ -13660,7 +13614,7 @@
       <c r="G63" t="s">
         <v>51</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="3" t="s">
         <v>462</v>
       </c>
       <c r="I63" t="s">
@@ -13702,7 +13656,7 @@
       <c r="U63" t="s">
         <v>471</v>
       </c>
-      <c r="V63" s="4" t="s">
+      <c r="V63" s="3" t="s">
         <v>472</v>
       </c>
       <c r="W63" t="s">
@@ -13780,11 +13734,11 @@
       <c r="AU63" t="s">
         <v>57</v>
       </c>
-      <c r="AV63" s="4" t="s">
+      <c r="AV63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>486</v>
       </c>
@@ -13806,7 +13760,7 @@
       <c r="G64" t="s">
         <v>51</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="3" t="s">
         <v>488</v>
       </c>
       <c r="I64" t="s">
@@ -13848,7 +13802,7 @@
       <c r="U64" t="s">
         <v>55</v>
       </c>
-      <c r="V64" s="4" t="s">
+      <c r="V64" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W64" t="s">
@@ -13926,11 +13880,11 @@
       <c r="AU64" t="s">
         <v>57</v>
       </c>
-      <c r="AV64" s="4" t="s">
+      <c r="AV64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>491</v>
       </c>
@@ -13952,7 +13906,7 @@
       <c r="G65" t="s">
         <v>51</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="3" t="s">
         <v>494</v>
       </c>
       <c r="I65" t="s">
@@ -13994,7 +13948,7 @@
       <c r="U65" t="s">
         <v>55</v>
       </c>
-      <c r="V65" s="4" t="s">
+      <c r="V65" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W65" t="s">
@@ -14072,11 +14026,11 @@
       <c r="AU65" t="s">
         <v>57</v>
       </c>
-      <c r="AV65" s="4" t="s">
+      <c r="AV65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>514</v>
       </c>
@@ -14098,7 +14052,7 @@
       <c r="G66" t="s">
         <v>51</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I66" t="s">
@@ -14140,7 +14094,7 @@
       <c r="U66" t="s">
         <v>55</v>
       </c>
-      <c r="V66" s="4" t="s">
+      <c r="V66" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W66" t="s">
@@ -14218,11 +14172,11 @@
       <c r="AU66" t="s">
         <v>57</v>
       </c>
-      <c r="AV66" s="4" t="s">
+      <c r="AV66" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>516</v>
       </c>
@@ -14244,7 +14198,7 @@
       <c r="G67" t="s">
         <v>51</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="3" t="s">
         <v>518</v>
       </c>
       <c r="I67" t="s">
@@ -14286,7 +14240,7 @@
       <c r="U67" t="s">
         <v>55</v>
       </c>
-      <c r="V67" s="4" t="s">
+      <c r="V67" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W67" t="s">
@@ -14364,11 +14318,11 @@
       <c r="AU67" t="s">
         <v>544</v>
       </c>
-      <c r="AV67" s="4" t="s">
+      <c r="AV67" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="68" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>516</v>
       </c>
@@ -14390,7 +14344,7 @@
       <c r="G68" t="s">
         <v>51</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="3" t="s">
         <v>547</v>
       </c>
       <c r="I68" t="s">
@@ -14432,7 +14386,7 @@
       <c r="U68" t="s">
         <v>55</v>
       </c>
-      <c r="V68" s="4" t="s">
+      <c r="V68" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W68" t="s">
@@ -14510,11 +14464,11 @@
       <c r="AU68" t="s">
         <v>544</v>
       </c>
-      <c r="AV68" s="4" t="s">
+      <c r="AV68" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="69" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>572</v>
       </c>
@@ -14536,7 +14490,7 @@
       <c r="G69" t="s">
         <v>51</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="3" t="s">
         <v>574</v>
       </c>
       <c r="I69" t="s">
@@ -14578,7 +14532,7 @@
       <c r="U69" t="s">
         <v>55</v>
       </c>
-      <c r="V69" s="4" t="s">
+      <c r="V69" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W69" t="s">
@@ -14656,11 +14610,11 @@
       <c r="AU69" t="s">
         <v>57</v>
       </c>
-      <c r="AV69" s="4" t="s">
+      <c r="AV69" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>600</v>
       </c>
@@ -14682,7 +14636,7 @@
       <c r="G70" t="s">
         <v>51</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="3" t="s">
         <v>602</v>
       </c>
       <c r="I70" t="s">
@@ -14724,7 +14678,7 @@
       <c r="U70" t="s">
         <v>55</v>
       </c>
-      <c r="V70" s="4" t="s">
+      <c r="V70" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W70" t="s">
@@ -14802,11 +14756,11 @@
       <c r="AU70" t="s">
         <v>57</v>
       </c>
-      <c r="AV70" s="4" t="s">
+      <c r="AV70" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>605</v>
       </c>
@@ -14828,7 +14782,7 @@
       <c r="G71" t="s">
         <v>51</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="3" t="s">
         <v>607</v>
       </c>
       <c r="I71" t="s">
@@ -14870,7 +14824,7 @@
       <c r="U71" t="s">
         <v>616</v>
       </c>
-      <c r="V71" s="4" t="s">
+      <c r="V71" s="3" t="s">
         <v>617</v>
       </c>
       <c r="W71" t="s">
@@ -14948,11 +14902,11 @@
       <c r="AU71" t="s">
         <v>634</v>
       </c>
-      <c r="AV71" s="4" t="s">
+      <c r="AV71" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="72" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>636</v>
       </c>
@@ -14974,7 +14928,7 @@
       <c r="G72" t="s">
         <v>51</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="3" t="s">
         <v>306</v>
       </c>
       <c r="I72" t="s">
@@ -15016,7 +14970,7 @@
       <c r="U72" t="s">
         <v>55</v>
       </c>
-      <c r="V72" s="4" t="s">
+      <c r="V72" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W72" t="s">
@@ -15094,11 +15048,11 @@
       <c r="AU72" t="s">
         <v>57</v>
       </c>
-      <c r="AV72" s="4" t="s">
+      <c r="AV72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>641</v>
       </c>
@@ -15120,7 +15074,7 @@
       <c r="G73" t="s">
         <v>51</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I73" t="s">
@@ -15162,7 +15116,7 @@
       <c r="U73" t="s">
         <v>55</v>
       </c>
-      <c r="V73" s="4" t="s">
+      <c r="V73" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W73" t="s">
@@ -15240,11 +15194,11 @@
       <c r="AU73" t="s">
         <v>57</v>
       </c>
-      <c r="AV73" s="4" t="s">
+      <c r="AV73" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>643</v>
       </c>
@@ -15266,7 +15220,7 @@
       <c r="G74" t="s">
         <v>51</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I74" t="s">
@@ -15308,7 +15262,7 @@
       <c r="U74" t="s">
         <v>55</v>
       </c>
-      <c r="V74" s="4" t="s">
+      <c r="V74" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W74" t="s">
@@ -15386,11 +15340,11 @@
       <c r="AU74" t="s">
         <v>57</v>
       </c>
-      <c r="AV74" s="4" t="s">
+      <c r="AV74" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>645</v>
       </c>
@@ -15412,7 +15366,7 @@
       <c r="G75" t="s">
         <v>51</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I75" t="s">
@@ -15454,7 +15408,7 @@
       <c r="U75" t="s">
         <v>55</v>
       </c>
-      <c r="V75" s="4" t="s">
+      <c r="V75" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W75" t="s">
@@ -15532,11 +15486,11 @@
       <c r="AU75" t="s">
         <v>57</v>
       </c>
-      <c r="AV75" s="4" t="s">
+      <c r="AV75" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>647</v>
       </c>
@@ -15558,7 +15512,7 @@
       <c r="G76" t="s">
         <v>51</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="3" t="s">
         <v>483</v>
       </c>
       <c r="I76" t="s">
@@ -15600,7 +15554,7 @@
       <c r="U76" t="s">
         <v>55</v>
       </c>
-      <c r="V76" s="4" t="s">
+      <c r="V76" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W76" t="s">
@@ -15678,11 +15632,11 @@
       <c r="AU76" t="s">
         <v>57</v>
       </c>
-      <c r="AV76" s="4" t="s">
+      <c r="AV76" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>651</v>
       </c>
@@ -15704,7 +15658,7 @@
       <c r="G77" t="s">
         <v>51</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I77" t="s">
@@ -15746,7 +15700,7 @@
       <c r="U77" t="s">
         <v>55</v>
       </c>
-      <c r="V77" s="4" t="s">
+      <c r="V77" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W77" t="s">
@@ -15824,11 +15778,11 @@
       <c r="AU77" t="s">
         <v>57</v>
       </c>
-      <c r="AV77" s="4" t="s">
+      <c r="AV77" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>653</v>
       </c>
@@ -15850,7 +15804,7 @@
       <c r="G78" t="s">
         <v>51</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I78" t="s">
@@ -15892,7 +15846,7 @@
       <c r="U78" t="s">
         <v>55</v>
       </c>
-      <c r="V78" s="4" t="s">
+      <c r="V78" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W78" t="s">
@@ -15970,11 +15924,11 @@
       <c r="AU78" t="s">
         <v>57</v>
       </c>
-      <c r="AV78" s="4" t="s">
+      <c r="AV78" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>655</v>
       </c>
@@ -15996,7 +15950,7 @@
       <c r="G79" t="s">
         <v>51</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I79" t="s">
@@ -16038,7 +15992,7 @@
       <c r="U79" t="s">
         <v>55</v>
       </c>
-      <c r="V79" s="4" t="s">
+      <c r="V79" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W79" t="s">
@@ -16116,11 +16070,11 @@
       <c r="AU79" t="s">
         <v>57</v>
       </c>
-      <c r="AV79" s="4" t="s">
+      <c r="AV79" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>657</v>
       </c>
@@ -16142,7 +16096,7 @@
       <c r="G80" t="s">
         <v>51</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="3" t="s">
         <v>659</v>
       </c>
       <c r="I80" t="s">
@@ -16184,7 +16138,7 @@
       <c r="U80" t="s">
         <v>55</v>
       </c>
-      <c r="V80" s="4" t="s">
+      <c r="V80" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W80" t="s">
@@ -16262,11 +16216,11 @@
       <c r="AU80" t="s">
         <v>57</v>
       </c>
-      <c r="AV80" s="4" t="s">
+      <c r="AV80" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>662</v>
       </c>
@@ -16288,7 +16242,7 @@
       <c r="G81" t="s">
         <v>51</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I81" t="s">
@@ -16330,7 +16284,7 @@
       <c r="U81" t="s">
         <v>55</v>
       </c>
-      <c r="V81" s="4" t="s">
+      <c r="V81" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W81" t="s">
@@ -16408,11 +16362,11 @@
       <c r="AU81" t="s">
         <v>57</v>
       </c>
-      <c r="AV81" s="4" t="s">
+      <c r="AV81" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>664</v>
       </c>
@@ -16434,7 +16388,7 @@
       <c r="G82" t="s">
         <v>51</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I82" t="s">
@@ -16476,7 +16430,7 @@
       <c r="U82" t="s">
         <v>55</v>
       </c>
-      <c r="V82" s="4" t="s">
+      <c r="V82" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W82" t="s">
@@ -16554,11 +16508,11 @@
       <c r="AU82" t="s">
         <v>57</v>
       </c>
-      <c r="AV82" s="4" t="s">
+      <c r="AV82" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>666</v>
       </c>
@@ -16580,7 +16534,7 @@
       <c r="G83" t="s">
         <v>51</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I83" t="s">
@@ -16622,7 +16576,7 @@
       <c r="U83" t="s">
         <v>55</v>
       </c>
-      <c r="V83" s="4" t="s">
+      <c r="V83" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W83" t="s">
@@ -16700,11 +16654,11 @@
       <c r="AU83" t="s">
         <v>57</v>
       </c>
-      <c r="AV83" s="4" t="s">
+      <c r="AV83" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>668</v>
       </c>
@@ -16726,7 +16680,7 @@
       <c r="G84" t="s">
         <v>51</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I84" t="s">
@@ -16768,7 +16722,7 @@
       <c r="U84" t="s">
         <v>55</v>
       </c>
-      <c r="V84" s="4" t="s">
+      <c r="V84" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W84" t="s">
@@ -16846,11 +16800,11 @@
       <c r="AU84" t="s">
         <v>57</v>
       </c>
-      <c r="AV84" s="4" t="s">
+      <c r="AV84" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>670</v>
       </c>
@@ -16872,7 +16826,7 @@
       <c r="G85" t="s">
         <v>51</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="3" t="s">
         <v>594</v>
       </c>
       <c r="I85" t="s">
@@ -16914,7 +16868,7 @@
       <c r="U85" t="s">
         <v>55</v>
       </c>
-      <c r="V85" s="4" t="s">
+      <c r="V85" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W85" t="s">
@@ -16992,11 +16946,11 @@
       <c r="AU85" t="s">
         <v>57</v>
       </c>
-      <c r="AV85" s="4" t="s">
+      <c r="AV85" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>674</v>
       </c>
@@ -17018,7 +16972,7 @@
       <c r="G86" t="s">
         <v>51</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I86" t="s">
@@ -17060,7 +17014,7 @@
       <c r="U86" t="s">
         <v>55</v>
       </c>
-      <c r="V86" s="4" t="s">
+      <c r="V86" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W86" t="s">
@@ -17138,11 +17092,11 @@
       <c r="AU86" t="s">
         <v>57</v>
       </c>
-      <c r="AV86" s="4" t="s">
+      <c r="AV86" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>676</v>
       </c>
@@ -17164,7 +17118,7 @@
       <c r="G87" t="s">
         <v>51</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I87" t="s">
@@ -17206,7 +17160,7 @@
       <c r="U87" t="s">
         <v>55</v>
       </c>
-      <c r="V87" s="4" t="s">
+      <c r="V87" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W87" t="s">
@@ -17284,11 +17238,11 @@
       <c r="AU87" t="s">
         <v>57</v>
       </c>
-      <c r="AV87" s="4" t="s">
+      <c r="AV87" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>678</v>
       </c>
@@ -17310,7 +17264,7 @@
       <c r="G88" t="s">
         <v>51</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I88" t="s">
@@ -17352,7 +17306,7 @@
       <c r="U88" t="s">
         <v>55</v>
       </c>
-      <c r="V88" s="4" t="s">
+      <c r="V88" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W88" t="s">
@@ -17430,11 +17384,11 @@
       <c r="AU88" t="s">
         <v>57</v>
       </c>
-      <c r="AV88" s="4" t="s">
+      <c r="AV88" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>680</v>
       </c>
@@ -17456,7 +17410,7 @@
       <c r="G89" t="s">
         <v>51</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I89" t="s">
@@ -17498,7 +17452,7 @@
       <c r="U89" t="s">
         <v>55</v>
       </c>
-      <c r="V89" s="4" t="s">
+      <c r="V89" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W89" t="s">
@@ -17576,11 +17530,11 @@
       <c r="AU89" t="s">
         <v>57</v>
       </c>
-      <c r="AV89" s="4" t="s">
+      <c r="AV89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>682</v>
       </c>
@@ -17602,7 +17556,7 @@
       <c r="G90" t="s">
         <v>51</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I90" t="s">
@@ -17644,7 +17598,7 @@
       <c r="U90" t="s">
         <v>55</v>
       </c>
-      <c r="V90" s="4" t="s">
+      <c r="V90" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W90" t="s">
@@ -17722,11 +17676,11 @@
       <c r="AU90" t="s">
         <v>57</v>
       </c>
-      <c r="AV90" s="4" t="s">
+      <c r="AV90" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>684</v>
       </c>
@@ -17748,7 +17702,7 @@
       <c r="G91" t="s">
         <v>51</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I91" t="s">
@@ -17790,7 +17744,7 @@
       <c r="U91" t="s">
         <v>55</v>
       </c>
-      <c r="V91" s="4" t="s">
+      <c r="V91" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W91" t="s">
@@ -17868,11 +17822,11 @@
       <c r="AU91" t="s">
         <v>57</v>
       </c>
-      <c r="AV91" s="4" t="s">
+      <c r="AV91" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>686</v>
       </c>
@@ -17894,7 +17848,7 @@
       <c r="G92" t="s">
         <v>51</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I92" t="s">
@@ -17936,7 +17890,7 @@
       <c r="U92" t="s">
         <v>55</v>
       </c>
-      <c r="V92" s="4" t="s">
+      <c r="V92" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W92" t="s">
@@ -18014,11 +17968,11 @@
       <c r="AU92" t="s">
         <v>57</v>
       </c>
-      <c r="AV92" s="4" t="s">
+      <c r="AV92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>690</v>
       </c>
@@ -18040,7 +17994,7 @@
       <c r="G93" t="s">
         <v>51</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="3" t="s">
         <v>128</v>
       </c>
       <c r="I93" t="s">
@@ -18082,7 +18036,7 @@
       <c r="U93" t="s">
         <v>55</v>
       </c>
-      <c r="V93" s="4" t="s">
+      <c r="V93" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W93" t="s">
@@ -18160,11 +18114,11 @@
       <c r="AU93" t="s">
         <v>57</v>
       </c>
-      <c r="AV93" s="4" t="s">
+      <c r="AV93" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>694</v>
       </c>
@@ -18186,7 +18140,7 @@
       <c r="G94" t="s">
         <v>51</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I94" t="s">
@@ -18228,7 +18182,7 @@
       <c r="U94" t="s">
         <v>55</v>
       </c>
-      <c r="V94" s="4" t="s">
+      <c r="V94" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W94" t="s">
@@ -18306,11 +18260,11 @@
       <c r="AU94" t="s">
         <v>57</v>
       </c>
-      <c r="AV94" s="4" t="s">
+      <c r="AV94" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>696</v>
       </c>
@@ -18332,7 +18286,7 @@
       <c r="G95" t="s">
         <v>51</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I95" t="s">
@@ -18374,7 +18328,7 @@
       <c r="U95" t="s">
         <v>55</v>
       </c>
-      <c r="V95" s="4" t="s">
+      <c r="V95" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W95" t="s">
@@ -18452,11 +18406,11 @@
       <c r="AU95" t="s">
         <v>57</v>
       </c>
-      <c r="AV95" s="4" t="s">
+      <c r="AV95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>698</v>
       </c>
@@ -18478,7 +18432,7 @@
       <c r="G96" t="s">
         <v>51</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I96" t="s">
@@ -18520,7 +18474,7 @@
       <c r="U96" t="s">
         <v>55</v>
       </c>
-      <c r="V96" s="4" t="s">
+      <c r="V96" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W96" t="s">
@@ -18598,11 +18552,11 @@
       <c r="AU96" t="s">
         <v>57</v>
       </c>
-      <c r="AV96" s="4" t="s">
+      <c r="AV96" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>700</v>
       </c>
@@ -18624,7 +18578,7 @@
       <c r="G97" t="s">
         <v>51</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I97" t="s">
@@ -18666,7 +18620,7 @@
       <c r="U97" t="s">
         <v>55</v>
       </c>
-      <c r="V97" s="4" t="s">
+      <c r="V97" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W97" t="s">
@@ -18744,11 +18698,11 @@
       <c r="AU97" t="s">
         <v>57</v>
       </c>
-      <c r="AV97" s="4" t="s">
+      <c r="AV97" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>702</v>
       </c>
@@ -18770,7 +18724,7 @@
       <c r="G98" t="s">
         <v>51</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I98" t="s">
@@ -18812,7 +18766,7 @@
       <c r="U98" t="s">
         <v>55</v>
       </c>
-      <c r="V98" s="4" t="s">
+      <c r="V98" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W98" t="s">
@@ -18890,11 +18844,11 @@
       <c r="AU98" t="s">
         <v>57</v>
       </c>
-      <c r="AV98" s="4" t="s">
+      <c r="AV98" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>704</v>
       </c>
@@ -18916,7 +18870,7 @@
       <c r="G99" t="s">
         <v>51</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I99" t="s">
@@ -18958,7 +18912,7 @@
       <c r="U99" t="s">
         <v>55</v>
       </c>
-      <c r="V99" s="4" t="s">
+      <c r="V99" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W99" t="s">
@@ -19036,11 +18990,11 @@
       <c r="AU99" t="s">
         <v>57</v>
       </c>
-      <c r="AV99" s="4" t="s">
+      <c r="AV99" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>706</v>
       </c>
@@ -19062,7 +19016,7 @@
       <c r="G100" t="s">
         <v>51</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I100" t="s">
@@ -19104,7 +19058,7 @@
       <c r="U100" t="s">
         <v>55</v>
       </c>
-      <c r="V100" s="4" t="s">
+      <c r="V100" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W100" t="s">
@@ -19182,11 +19136,11 @@
       <c r="AU100" t="s">
         <v>57</v>
       </c>
-      <c r="AV100" s="4" t="s">
+      <c r="AV100" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>708</v>
       </c>
@@ -19208,7 +19162,7 @@
       <c r="G101" t="s">
         <v>51</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="3" t="s">
         <v>594</v>
       </c>
       <c r="I101" t="s">
@@ -19250,7 +19204,7 @@
       <c r="U101" t="s">
         <v>55</v>
       </c>
-      <c r="V101" s="4" t="s">
+      <c r="V101" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W101" t="s">
@@ -19328,11 +19282,11 @@
       <c r="AU101" t="s">
         <v>57</v>
       </c>
-      <c r="AV101" s="4" t="s">
+      <c r="AV101" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>711</v>
       </c>
@@ -19354,7 +19308,7 @@
       <c r="G102" t="s">
         <v>51</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I102" t="s">
@@ -19396,7 +19350,7 @@
       <c r="U102" t="s">
         <v>55</v>
       </c>
-      <c r="V102" s="4" t="s">
+      <c r="V102" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W102" t="s">
@@ -19474,11 +19428,11 @@
       <c r="AU102" t="s">
         <v>57</v>
       </c>
-      <c r="AV102" s="4" t="s">
+      <c r="AV102" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>713</v>
       </c>
@@ -19500,7 +19454,7 @@
       <c r="G103" t="s">
         <v>51</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="3" t="s">
         <v>715</v>
       </c>
       <c r="I103" t="s">
@@ -19542,7 +19496,7 @@
       <c r="U103" t="s">
         <v>55</v>
       </c>
-      <c r="V103" s="4" t="s">
+      <c r="V103" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W103" t="s">
@@ -19620,11 +19574,11 @@
       <c r="AU103" t="s">
         <v>57</v>
       </c>
-      <c r="AV103" s="4" t="s">
+      <c r="AV103" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>717</v>
       </c>
@@ -19646,7 +19600,7 @@
       <c r="G104" t="s">
         <v>51</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="3" t="s">
         <v>719</v>
       </c>
       <c r="I104" t="s">
@@ -19688,7 +19642,7 @@
       <c r="U104" t="s">
         <v>55</v>
       </c>
-      <c r="V104" s="4" t="s">
+      <c r="V104" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W104" t="s">
@@ -19766,11 +19720,11 @@
       <c r="AU104" t="s">
         <v>57</v>
       </c>
-      <c r="AV104" s="4" t="s">
+      <c r="AV104" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="105" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>722</v>
       </c>
@@ -19792,7 +19746,7 @@
       <c r="G105" t="s">
         <v>51</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="3" t="s">
         <v>724</v>
       </c>
       <c r="I105" t="s">
@@ -19834,7 +19788,7 @@
       <c r="U105" t="s">
         <v>55</v>
       </c>
-      <c r="V105" s="4" t="s">
+      <c r="V105" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W105" t="s">
@@ -19912,11 +19866,11 @@
       <c r="AU105" t="s">
         <v>57</v>
       </c>
-      <c r="AV105" s="4" t="s">
+      <c r="AV105" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>727</v>
       </c>
@@ -19938,7 +19892,7 @@
       <c r="G106" t="s">
         <v>51</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I106" t="s">
@@ -19980,7 +19934,7 @@
       <c r="U106" t="s">
         <v>55</v>
       </c>
-      <c r="V106" s="4" t="s">
+      <c r="V106" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W106" t="s">
@@ -20058,11 +20012,11 @@
       <c r="AU106" t="s">
         <v>57</v>
       </c>
-      <c r="AV106" s="4" t="s">
+      <c r="AV106" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="107" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>729</v>
       </c>
@@ -20084,7 +20038,7 @@
       <c r="G107" t="s">
         <v>51</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I107" t="s">
@@ -20126,7 +20080,7 @@
       <c r="U107" t="s">
         <v>55</v>
       </c>
-      <c r="V107" s="4" t="s">
+      <c r="V107" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W107" t="s">
@@ -20204,11 +20158,11 @@
       <c r="AU107" t="s">
         <v>57</v>
       </c>
-      <c r="AV107" s="4" t="s">
+      <c r="AV107" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>731</v>
       </c>
@@ -20230,7 +20184,7 @@
       <c r="G108" t="s">
         <v>51</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I108" t="s">
@@ -20272,7 +20226,7 @@
       <c r="U108" t="s">
         <v>55</v>
       </c>
-      <c r="V108" s="4" t="s">
+      <c r="V108" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W108" t="s">
@@ -20350,11 +20304,11 @@
       <c r="AU108" t="s">
         <v>57</v>
       </c>
-      <c r="AV108" s="4" t="s">
+      <c r="AV108" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="109" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>733</v>
       </c>
@@ -20376,7 +20330,7 @@
       <c r="G109" t="s">
         <v>51</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I109" t="s">
@@ -20418,7 +20372,7 @@
       <c r="U109" t="s">
         <v>55</v>
       </c>
-      <c r="V109" s="4" t="s">
+      <c r="V109" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W109" t="s">
@@ -20496,11 +20450,11 @@
       <c r="AU109" t="s">
         <v>57</v>
       </c>
-      <c r="AV109" s="4" t="s">
+      <c r="AV109" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>735</v>
       </c>
@@ -20522,7 +20476,7 @@
       <c r="G110" t="s">
         <v>51</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I110" t="s">
@@ -20564,7 +20518,7 @@
       <c r="U110" t="s">
         <v>55</v>
       </c>
-      <c r="V110" s="4" t="s">
+      <c r="V110" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W110" t="s">
@@ -20642,11 +20596,11 @@
       <c r="AU110" t="s">
         <v>57</v>
       </c>
-      <c r="AV110" s="4" t="s">
+      <c r="AV110" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="111" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>737</v>
       </c>
@@ -20668,7 +20622,7 @@
       <c r="G111" t="s">
         <v>51</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="3" t="s">
         <v>740</v>
       </c>
       <c r="I111" t="s">
@@ -20710,7 +20664,7 @@
       <c r="U111" t="s">
         <v>55</v>
       </c>
-      <c r="V111" s="4" t="s">
+      <c r="V111" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W111" t="s">
@@ -20788,11 +20742,11 @@
       <c r="AU111" t="s">
         <v>57</v>
       </c>
-      <c r="AV111" s="4" t="s">
+      <c r="AV111" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>744</v>
       </c>
@@ -20814,7 +20768,7 @@
       <c r="G112" t="s">
         <v>51</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="3" t="s">
         <v>512</v>
       </c>
       <c r="I112" t="s">
@@ -20856,7 +20810,7 @@
       <c r="U112" t="s">
         <v>55</v>
       </c>
-      <c r="V112" s="4" t="s">
+      <c r="V112" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W112" t="s">
@@ -20934,11 +20888,11 @@
       <c r="AU112" t="s">
         <v>57</v>
       </c>
-      <c r="AV112" s="4" t="s">
+      <c r="AV112" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>748</v>
       </c>
@@ -20960,7 +20914,7 @@
       <c r="G113" t="s">
         <v>51</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I113" t="s">
@@ -21002,7 +20956,7 @@
       <c r="U113" t="s">
         <v>55</v>
       </c>
-      <c r="V113" s="4" t="s">
+      <c r="V113" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W113" t="s">
@@ -21080,11 +21034,11 @@
       <c r="AU113" t="s">
         <v>57</v>
       </c>
-      <c r="AV113" s="4" t="s">
+      <c r="AV113" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>750</v>
       </c>
@@ -21106,7 +21060,7 @@
       <c r="G114" t="s">
         <v>51</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="3" t="s">
         <v>752</v>
       </c>
       <c r="I114" t="s">
@@ -21148,7 +21102,7 @@
       <c r="U114" t="s">
         <v>55</v>
       </c>
-      <c r="V114" s="4" t="s">
+      <c r="V114" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W114" t="s">
@@ -21226,11 +21180,11 @@
       <c r="AU114" t="s">
         <v>57</v>
       </c>
-      <c r="AV114" s="4" t="s">
+      <c r="AV114" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>756</v>
       </c>
@@ -21252,7 +21206,7 @@
       <c r="G115" t="s">
         <v>51</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I115" t="s">
@@ -21294,7 +21248,7 @@
       <c r="U115" t="s">
         <v>55</v>
       </c>
-      <c r="V115" s="4" t="s">
+      <c r="V115" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W115" t="s">
@@ -21372,11 +21326,11 @@
       <c r="AU115" t="s">
         <v>57</v>
       </c>
-      <c r="AV115" s="4" t="s">
+      <c r="AV115" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>758</v>
       </c>
@@ -21398,7 +21352,7 @@
       <c r="G116" t="s">
         <v>51</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I116" t="s">
@@ -21440,7 +21394,7 @@
       <c r="U116" t="s">
         <v>55</v>
       </c>
-      <c r="V116" s="4" t="s">
+      <c r="V116" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W116" t="s">
@@ -21518,11 +21472,11 @@
       <c r="AU116" t="s">
         <v>57</v>
       </c>
-      <c r="AV116" s="4" t="s">
+      <c r="AV116" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="117" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>760</v>
       </c>
@@ -21544,7 +21498,7 @@
       <c r="G117" t="s">
         <v>51</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I117" t="s">
@@ -21586,7 +21540,7 @@
       <c r="U117" t="s">
         <v>55</v>
       </c>
-      <c r="V117" s="4" t="s">
+      <c r="V117" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W117" t="s">
@@ -21664,11 +21618,11 @@
       <c r="AU117" t="s">
         <v>57</v>
       </c>
-      <c r="AV117" s="4" t="s">
+      <c r="AV117" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>762</v>
       </c>
@@ -21690,7 +21644,7 @@
       <c r="G118" t="s">
         <v>51</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="3" t="s">
         <v>764</v>
       </c>
       <c r="I118" t="s">
@@ -21732,7 +21686,7 @@
       <c r="U118" t="s">
         <v>55</v>
       </c>
-      <c r="V118" s="4" t="s">
+      <c r="V118" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W118" t="s">
@@ -21810,11 +21764,11 @@
       <c r="AU118" t="s">
         <v>57</v>
       </c>
-      <c r="AV118" s="4" t="s">
+      <c r="AV118" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>767</v>
       </c>
@@ -21836,7 +21790,7 @@
       <c r="G119" t="s">
         <v>51</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="3" t="s">
         <v>263</v>
       </c>
       <c r="I119" t="s">
@@ -21878,7 +21832,7 @@
       <c r="U119" t="s">
         <v>55</v>
       </c>
-      <c r="V119" s="4" t="s">
+      <c r="V119" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W119" t="s">
@@ -21956,11 +21910,11 @@
       <c r="AU119" t="s">
         <v>57</v>
       </c>
-      <c r="AV119" s="4" t="s">
+      <c r="AV119" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>771</v>
       </c>
@@ -21982,7 +21936,7 @@
       <c r="G120" t="s">
         <v>51</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I120" t="s">
@@ -22024,7 +21978,7 @@
       <c r="U120" t="s">
         <v>55</v>
       </c>
-      <c r="V120" s="4" t="s">
+      <c r="V120" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W120" t="s">
@@ -22102,11 +22056,11 @@
       <c r="AU120" t="s">
         <v>57</v>
       </c>
-      <c r="AV120" s="4" t="s">
+      <c r="AV120" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>773</v>
       </c>
@@ -22128,7 +22082,7 @@
       <c r="G121" t="s">
         <v>51</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I121" t="s">
@@ -22170,7 +22124,7 @@
       <c r="U121" t="s">
         <v>55</v>
       </c>
-      <c r="V121" s="4" t="s">
+      <c r="V121" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W121" t="s">
@@ -22248,11 +22202,11 @@
       <c r="AU121" t="s">
         <v>57</v>
       </c>
-      <c r="AV121" s="4" t="s">
+      <c r="AV121" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>775</v>
       </c>
@@ -22274,7 +22228,7 @@
       <c r="G122" t="s">
         <v>51</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="3" t="s">
         <v>777</v>
       </c>
       <c r="I122" t="s">
@@ -22316,7 +22270,7 @@
       <c r="U122" t="s">
         <v>55</v>
       </c>
-      <c r="V122" s="4" t="s">
+      <c r="V122" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W122" t="s">
@@ -22394,11 +22348,11 @@
       <c r="AU122" t="s">
         <v>57</v>
       </c>
-      <c r="AV122" s="4" t="s">
+      <c r="AV122" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>780</v>
       </c>
@@ -22420,7 +22374,7 @@
       <c r="G123" t="s">
         <v>51</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I123" t="s">
@@ -22462,7 +22416,7 @@
       <c r="U123" t="s">
         <v>55</v>
       </c>
-      <c r="V123" s="4" t="s">
+      <c r="V123" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W123" t="s">
@@ -22540,11 +22494,11 @@
       <c r="AU123" t="s">
         <v>57</v>
       </c>
-      <c r="AV123" s="4" t="s">
+      <c r="AV123" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>782</v>
       </c>
@@ -22566,7 +22520,7 @@
       <c r="G124" t="s">
         <v>51</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I124" t="s">
@@ -22608,7 +22562,7 @@
       <c r="U124" t="s">
         <v>55</v>
       </c>
-      <c r="V124" s="4" t="s">
+      <c r="V124" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W124" t="s">
@@ -22686,11 +22640,11 @@
       <c r="AU124" t="s">
         <v>57</v>
       </c>
-      <c r="AV124" s="4" t="s">
+      <c r="AV124" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>784</v>
       </c>
@@ -22712,7 +22666,7 @@
       <c r="G125" t="s">
         <v>51</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="3" t="s">
         <v>570</v>
       </c>
       <c r="I125" t="s">
@@ -22754,7 +22708,7 @@
       <c r="U125" t="s">
         <v>55</v>
       </c>
-      <c r="V125" s="4" t="s">
+      <c r="V125" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W125" t="s">
@@ -22832,11 +22786,11 @@
       <c r="AU125" t="s">
         <v>57</v>
       </c>
-      <c r="AV125" s="4" t="s">
+      <c r="AV125" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>787</v>
       </c>
@@ -22858,7 +22812,7 @@
       <c r="G126" t="s">
         <v>51</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="3" t="s">
         <v>789</v>
       </c>
       <c r="I126" t="s">
@@ -22900,7 +22854,7 @@
       <c r="U126" t="s">
         <v>55</v>
       </c>
-      <c r="V126" s="4" t="s">
+      <c r="V126" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W126" t="s">
@@ -22978,11 +22932,11 @@
       <c r="AU126" t="s">
         <v>57</v>
       </c>
-      <c r="AV126" s="4" t="s">
+      <c r="AV126" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>792</v>
       </c>
@@ -23004,7 +22958,7 @@
       <c r="G127" t="s">
         <v>51</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="3" t="s">
         <v>794</v>
       </c>
       <c r="I127" t="s">
@@ -23046,7 +23000,7 @@
       <c r="U127" t="s">
         <v>55</v>
       </c>
-      <c r="V127" s="4" t="s">
+      <c r="V127" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W127" t="s">
@@ -23124,11 +23078,11 @@
       <c r="AU127" t="s">
         <v>57</v>
       </c>
-      <c r="AV127" s="4" t="s">
+      <c r="AV127" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>796</v>
       </c>
@@ -23150,7 +23104,7 @@
       <c r="G128" t="s">
         <v>51</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I128" t="s">
@@ -23192,7 +23146,7 @@
       <c r="U128" t="s">
         <v>55</v>
       </c>
-      <c r="V128" s="4" t="s">
+      <c r="V128" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W128" t="s">
@@ -23270,11 +23224,11 @@
       <c r="AU128" t="s">
         <v>57</v>
       </c>
-      <c r="AV128" s="4" t="s">
+      <c r="AV128" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>798</v>
       </c>
@@ -23296,7 +23250,7 @@
       <c r="G129" t="s">
         <v>51</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="3" t="s">
         <v>800</v>
       </c>
       <c r="I129" t="s">
@@ -23338,7 +23292,7 @@
       <c r="U129" t="s">
         <v>810</v>
       </c>
-      <c r="V129" s="4" t="s">
+      <c r="V129" s="3" t="s">
         <v>811</v>
       </c>
       <c r="W129" t="s">
@@ -23416,11 +23370,11 @@
       <c r="AU129" t="s">
         <v>822</v>
       </c>
-      <c r="AV129" s="4" t="s">
+      <c r="AV129" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="130" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>824</v>
       </c>
@@ -23442,7 +23396,7 @@
       <c r="G130" t="s">
         <v>51</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="3" t="s">
         <v>826</v>
       </c>
       <c r="I130" t="s">
@@ -23484,7 +23438,7 @@
       <c r="U130" t="s">
         <v>55</v>
       </c>
-      <c r="V130" s="4" t="s">
+      <c r="V130" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W130" t="s">
@@ -23562,11 +23516,11 @@
       <c r="AU130" t="s">
         <v>57</v>
       </c>
-      <c r="AV130" s="4" t="s">
+      <c r="AV130" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>836</v>
       </c>
@@ -23588,7 +23542,7 @@
       <c r="G131" t="s">
         <v>51</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I131" t="s">
@@ -23630,7 +23584,7 @@
       <c r="U131" t="s">
         <v>55</v>
       </c>
-      <c r="V131" s="4" t="s">
+      <c r="V131" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W131" t="s">
@@ -23708,11 +23662,11 @@
       <c r="AU131" t="s">
         <v>57</v>
       </c>
-      <c r="AV131" s="4" t="s">
+      <c r="AV131" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>838</v>
       </c>
@@ -23734,7 +23688,7 @@
       <c r="G132" t="s">
         <v>51</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I132" t="s">
@@ -23776,7 +23730,7 @@
       <c r="U132" t="s">
         <v>55</v>
       </c>
-      <c r="V132" s="4" t="s">
+      <c r="V132" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W132" t="s">
@@ -23854,11 +23808,11 @@
       <c r="AU132" t="s">
         <v>57</v>
       </c>
-      <c r="AV132" s="4" t="s">
+      <c r="AV132" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>840</v>
       </c>
@@ -23880,7 +23834,7 @@
       <c r="G133" t="s">
         <v>51</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I133" t="s">
@@ -23922,7 +23876,7 @@
       <c r="U133" t="s">
         <v>55</v>
       </c>
-      <c r="V133" s="4" t="s">
+      <c r="V133" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W133" t="s">
@@ -24000,11 +23954,11 @@
       <c r="AU133" t="s">
         <v>57</v>
       </c>
-      <c r="AV133" s="4" t="s">
+      <c r="AV133" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>842</v>
       </c>
@@ -24026,7 +23980,7 @@
       <c r="G134" t="s">
         <v>51</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="3" t="s">
         <v>844</v>
       </c>
       <c r="I134" t="s">
@@ -24068,7 +24022,7 @@
       <c r="U134" t="s">
         <v>854</v>
       </c>
-      <c r="V134" s="4" t="s">
+      <c r="V134" s="3" t="s">
         <v>855</v>
       </c>
       <c r="W134" t="s">
@@ -24146,11 +24100,11 @@
       <c r="AU134" t="s">
         <v>864</v>
       </c>
-      <c r="AV134" s="4" t="s">
+      <c r="AV134" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="135" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>866</v>
       </c>
@@ -24172,7 +24126,7 @@
       <c r="G135" t="s">
         <v>51</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="3" t="s">
         <v>868</v>
       </c>
       <c r="I135" t="s">
@@ -24214,7 +24168,7 @@
       <c r="U135" t="s">
         <v>55</v>
       </c>
-      <c r="V135" s="4" t="s">
+      <c r="V135" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W135" t="s">
@@ -24292,11 +24246,11 @@
       <c r="AU135" t="s">
         <v>871</v>
       </c>
-      <c r="AV135" s="4" t="s">
+      <c r="AV135" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>872</v>
       </c>
@@ -24318,7 +24272,7 @@
       <c r="G136" t="s">
         <v>51</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I136" t="s">
@@ -24360,7 +24314,7 @@
       <c r="U136" t="s">
         <v>55</v>
       </c>
-      <c r="V136" s="4" t="s">
+      <c r="V136" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W136" t="s">
@@ -24438,11 +24392,11 @@
       <c r="AU136" t="s">
         <v>57</v>
       </c>
-      <c r="AV136" s="4" t="s">
+      <c r="AV136" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>874</v>
       </c>
@@ -24464,7 +24418,7 @@
       <c r="G137" t="s">
         <v>51</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="3" t="s">
         <v>79</v>
       </c>
       <c r="I137" t="s">
@@ -24506,7 +24460,7 @@
       <c r="U137" t="s">
         <v>55</v>
       </c>
-      <c r="V137" s="4" t="s">
+      <c r="V137" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W137" t="s">
@@ -24584,11 +24538,11 @@
       <c r="AU137" t="s">
         <v>57</v>
       </c>
-      <c r="AV137" s="4" t="s">
+      <c r="AV137" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>878</v>
       </c>
@@ -24610,7 +24564,7 @@
       <c r="G138" t="s">
         <v>51</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="3" t="s">
         <v>880</v>
       </c>
       <c r="I138" t="s">
@@ -24652,7 +24606,7 @@
       <c r="U138" t="s">
         <v>887</v>
       </c>
-      <c r="V138" s="4" t="s">
+      <c r="V138" s="3" t="s">
         <v>888</v>
       </c>
       <c r="W138" t="s">
@@ -24730,11 +24684,11 @@
       <c r="AU138" t="s">
         <v>897</v>
       </c>
-      <c r="AV138" s="4" t="s">
+      <c r="AV138" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="139" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>899</v>
       </c>
@@ -24756,7 +24710,7 @@
       <c r="G139" t="s">
         <v>51</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I139" t="s">
@@ -24798,7 +24752,7 @@
       <c r="U139" t="s">
         <v>55</v>
       </c>
-      <c r="V139" s="4" t="s">
+      <c r="V139" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W139" t="s">
@@ -24876,11 +24830,11 @@
       <c r="AU139" t="s">
         <v>57</v>
       </c>
-      <c r="AV139" s="4" t="s">
+      <c r="AV139" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>901</v>
       </c>
@@ -24902,7 +24856,7 @@
       <c r="G140" t="s">
         <v>51</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="3" t="s">
         <v>903</v>
       </c>
       <c r="I140" t="s">
@@ -24944,7 +24898,7 @@
       <c r="U140" t="s">
         <v>55</v>
       </c>
-      <c r="V140" s="4" t="s">
+      <c r="V140" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W140" t="s">
@@ -25022,11 +24976,11 @@
       <c r="AU140" t="s">
         <v>922</v>
       </c>
-      <c r="AV140" s="4" t="s">
+      <c r="AV140" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="141" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>924</v>
       </c>
@@ -25048,7 +25002,7 @@
       <c r="G141" t="s">
         <v>51</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="3" t="s">
         <v>926</v>
       </c>
       <c r="I141" t="s">
@@ -25090,7 +25044,7 @@
       <c r="U141" t="s">
         <v>55</v>
       </c>
-      <c r="V141" s="4" t="s">
+      <c r="V141" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W141" t="s">
@@ -25168,11 +25122,11 @@
       <c r="AU141" t="s">
         <v>57</v>
       </c>
-      <c r="AV141" s="4" t="s">
+      <c r="AV141" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>929</v>
       </c>
@@ -25194,7 +25148,7 @@
       <c r="G142" t="s">
         <v>51</v>
       </c>
-      <c r="H142" t="s">
+      <c r="H142" s="3" t="s">
         <v>931</v>
       </c>
       <c r="I142" t="s">
@@ -25236,7 +25190,7 @@
       <c r="U142" t="s">
         <v>55</v>
       </c>
-      <c r="V142" s="4" t="s">
+      <c r="V142" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W142" t="s">
@@ -25314,11 +25268,11 @@
       <c r="AU142" t="s">
         <v>957</v>
       </c>
-      <c r="AV142" s="4" t="s">
+      <c r="AV142" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="143" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>959</v>
       </c>
@@ -25340,7 +25294,7 @@
       <c r="G143" t="s">
         <v>51</v>
       </c>
-      <c r="H143" t="s">
+      <c r="H143" s="3" t="s">
         <v>961</v>
       </c>
       <c r="I143" t="s">
@@ -25382,7 +25336,7 @@
       <c r="U143" t="s">
         <v>55</v>
       </c>
-      <c r="V143" s="4" t="s">
+      <c r="V143" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W143" t="s">
@@ -25460,11 +25414,11 @@
       <c r="AU143" t="s">
         <v>982</v>
       </c>
-      <c r="AV143" s="4" t="s">
+      <c r="AV143" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="144" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>984</v>
       </c>
@@ -25486,7 +25440,7 @@
       <c r="G144" t="s">
         <v>51</v>
       </c>
-      <c r="H144" t="s">
+      <c r="H144" s="3" t="s">
         <v>986</v>
       </c>
       <c r="I144" t="s">
@@ -25528,7 +25482,7 @@
       <c r="U144" t="s">
         <v>55</v>
       </c>
-      <c r="V144" s="4" t="s">
+      <c r="V144" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W144" t="s">
@@ -25606,11 +25560,11 @@
       <c r="AU144" t="s">
         <v>57</v>
       </c>
-      <c r="AV144" s="4" t="s">
+      <c r="AV144" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>989</v>
       </c>
@@ -25632,7 +25586,7 @@
       <c r="G145" t="s">
         <v>51</v>
       </c>
-      <c r="H145" t="s">
+      <c r="H145" s="3" t="s">
         <v>991</v>
       </c>
       <c r="I145" t="s">
@@ -25674,7 +25628,7 @@
       <c r="U145" t="s">
         <v>55</v>
       </c>
-      <c r="V145" s="4" t="s">
+      <c r="V145" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W145" t="s">
@@ -25752,11 +25706,11 @@
       <c r="AU145" t="s">
         <v>57</v>
       </c>
-      <c r="AV145" s="4" t="s">
+      <c r="AV145" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="146" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>994</v>
       </c>
@@ -25778,7 +25732,7 @@
       <c r="G146" t="s">
         <v>51</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I146" t="s">
@@ -25820,7 +25774,7 @@
       <c r="U146" t="s">
         <v>55</v>
       </c>
-      <c r="V146" s="4" t="s">
+      <c r="V146" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W146" t="s">
@@ -25898,11 +25852,11 @@
       <c r="AU146" t="s">
         <v>57</v>
       </c>
-      <c r="AV146" s="4" t="s">
+      <c r="AV146" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>996</v>
       </c>
@@ -25924,7 +25878,7 @@
       <c r="G147" t="s">
         <v>51</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I147" t="s">
@@ -25966,7 +25920,7 @@
       <c r="U147" t="s">
         <v>55</v>
       </c>
-      <c r="V147" s="4" t="s">
+      <c r="V147" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W147" t="s">
@@ -26044,11 +25998,11 @@
       <c r="AU147" t="s">
         <v>57</v>
       </c>
-      <c r="AV147" s="4" t="s">
+      <c r="AV147" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>998</v>
       </c>
@@ -26070,7 +26024,7 @@
       <c r="G148" t="s">
         <v>51</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I148" t="s">
@@ -26112,7 +26066,7 @@
       <c r="U148" t="s">
         <v>55</v>
       </c>
-      <c r="V148" s="4" t="s">
+      <c r="V148" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W148" t="s">
@@ -26190,11 +26144,11 @@
       <c r="AU148" t="s">
         <v>57</v>
       </c>
-      <c r="AV148" s="4" t="s">
+      <c r="AV148" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1000</v>
       </c>
@@ -26216,7 +26170,7 @@
       <c r="G149" t="s">
         <v>51</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I149" t="s">
@@ -26258,7 +26212,7 @@
       <c r="U149" t="s">
         <v>55</v>
       </c>
-      <c r="V149" s="4" t="s">
+      <c r="V149" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W149" t="s">
@@ -26336,11 +26290,11 @@
       <c r="AU149" t="s">
         <v>57</v>
       </c>
-      <c r="AV149" s="4" t="s">
+      <c r="AV149" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1002</v>
       </c>
@@ -26362,7 +26316,7 @@
       <c r="G150" t="s">
         <v>51</v>
       </c>
-      <c r="H150" t="s">
+      <c r="H150" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I150" t="s">
@@ -26404,7 +26358,7 @@
       <c r="U150" t="s">
         <v>55</v>
       </c>
-      <c r="V150" s="4" t="s">
+      <c r="V150" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W150" t="s">
@@ -26482,11 +26436,11 @@
       <c r="AU150" t="s">
         <v>57</v>
       </c>
-      <c r="AV150" s="4" t="s">
+      <c r="AV150" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1004</v>
       </c>
@@ -26508,7 +26462,7 @@
       <c r="G151" t="s">
         <v>51</v>
       </c>
-      <c r="H151" t="s">
+      <c r="H151" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I151" t="s">
@@ -26550,7 +26504,7 @@
       <c r="U151" t="s">
         <v>55</v>
       </c>
-      <c r="V151" s="4" t="s">
+      <c r="V151" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W151" t="s">
@@ -26628,11 +26582,11 @@
       <c r="AU151" t="s">
         <v>57</v>
       </c>
-      <c r="AV151" s="4" t="s">
+      <c r="AV151" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1006</v>
       </c>
@@ -26654,7 +26608,7 @@
       <c r="G152" t="s">
         <v>51</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="3" t="s">
         <v>1008</v>
       </c>
       <c r="I152" t="s">
@@ -26696,7 +26650,7 @@
       <c r="U152" t="s">
         <v>55</v>
       </c>
-      <c r="V152" s="4" t="s">
+      <c r="V152" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W152" t="s">
@@ -26774,11 +26728,11 @@
       <c r="AU152" t="s">
         <v>57</v>
       </c>
-      <c r="AV152" s="4" t="s">
+      <c r="AV152" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1011</v>
       </c>
@@ -26800,7 +26754,7 @@
       <c r="G153" t="s">
         <v>51</v>
       </c>
-      <c r="H153" t="s">
+      <c r="H153" s="3" t="s">
         <v>1013</v>
       </c>
       <c r="I153" t="s">
@@ -26842,7 +26796,7 @@
       <c r="U153" t="s">
         <v>55</v>
       </c>
-      <c r="V153" s="4" t="s">
+      <c r="V153" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W153" t="s">
@@ -26920,11 +26874,11 @@
       <c r="AU153" t="s">
         <v>1029</v>
       </c>
-      <c r="AV153" s="4" t="s">
+      <c r="AV153" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="154" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1031</v>
       </c>
@@ -26946,7 +26900,7 @@
       <c r="G154" t="s">
         <v>51</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I154" t="s">
@@ -26988,7 +26942,7 @@
       <c r="U154" t="s">
         <v>55</v>
       </c>
-      <c r="V154" s="4" t="s">
+      <c r="V154" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W154" t="s">
@@ -27066,11 +27020,11 @@
       <c r="AU154" t="s">
         <v>57</v>
       </c>
-      <c r="AV154" s="4" t="s">
+      <c r="AV154" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1033</v>
       </c>
@@ -27092,7 +27046,7 @@
       <c r="G155" t="s">
         <v>51</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="3" t="s">
         <v>1035</v>
       </c>
       <c r="I155" t="s">
@@ -27134,7 +27088,7 @@
       <c r="U155" t="s">
         <v>55</v>
       </c>
-      <c r="V155" s="4" t="s">
+      <c r="V155" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W155" t="s">
@@ -27212,11 +27166,11 @@
       <c r="AU155" t="s">
         <v>1038</v>
       </c>
-      <c r="AV155" s="4" t="s">
+      <c r="AV155" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1039</v>
       </c>
@@ -27238,7 +27192,7 @@
       <c r="G156" t="s">
         <v>51</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="3" t="s">
         <v>1041</v>
       </c>
       <c r="I156" t="s">
@@ -27280,7 +27234,7 @@
       <c r="U156" t="s">
         <v>55</v>
       </c>
-      <c r="V156" s="4" t="s">
+      <c r="V156" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W156" t="s">
@@ -27358,11 +27312,11 @@
       <c r="AU156" t="s">
         <v>1044</v>
       </c>
-      <c r="AV156" s="4" t="s">
+      <c r="AV156" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1045</v>
       </c>
@@ -27384,7 +27338,7 @@
       <c r="G157" t="s">
         <v>51</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="3" t="s">
         <v>1047</v>
       </c>
       <c r="I157" t="s">
@@ -27426,7 +27380,7 @@
       <c r="U157" t="s">
         <v>1057</v>
       </c>
-      <c r="V157" s="4" t="s">
+      <c r="V157" s="3" t="s">
         <v>1058</v>
       </c>
       <c r="W157" t="s">
@@ -27504,11 +27458,11 @@
       <c r="AU157" t="s">
         <v>1074</v>
       </c>
-      <c r="AV157" s="4" t="s">
+      <c r="AV157" t="s">
         <v>1075</v>
       </c>
     </row>
-    <row r="158" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1076</v>
       </c>
@@ -27530,7 +27484,7 @@
       <c r="G158" t="s">
         <v>51</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="3" t="s">
         <v>1078</v>
       </c>
       <c r="I158" t="s">
@@ -27572,7 +27526,7 @@
       <c r="U158" t="s">
         <v>1087</v>
       </c>
-      <c r="V158" s="4" t="s">
+      <c r="V158" s="3" t="s">
         <v>1088</v>
       </c>
       <c r="W158" t="s">
@@ -27650,11 +27604,11 @@
       <c r="AU158" t="s">
         <v>1096</v>
       </c>
-      <c r="AV158" s="4" t="s">
+      <c r="AV158" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="159" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1098</v>
       </c>
@@ -27676,7 +27630,7 @@
       <c r="G159" t="s">
         <v>51</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="3" t="s">
         <v>1100</v>
       </c>
       <c r="I159" t="s">
@@ -27718,7 +27672,7 @@
       <c r="U159" t="s">
         <v>1109</v>
       </c>
-      <c r="V159" s="4" t="s">
+      <c r="V159" s="3" t="s">
         <v>1110</v>
       </c>
       <c r="W159" t="s">
@@ -27796,11 +27750,11 @@
       <c r="AU159" t="s">
         <v>1117</v>
       </c>
-      <c r="AV159" s="4" t="s">
+      <c r="AV159" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="160" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1119</v>
       </c>
@@ -27822,7 +27776,7 @@
       <c r="G160" t="s">
         <v>51</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="3" t="s">
         <v>1121</v>
       </c>
       <c r="I160" t="s">
@@ -27864,7 +27818,7 @@
       <c r="U160" t="s">
         <v>55</v>
       </c>
-      <c r="V160" s="4" t="s">
+      <c r="V160" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W160" t="s">
@@ -27942,11 +27896,11 @@
       <c r="AU160" t="s">
         <v>1138</v>
       </c>
-      <c r="AV160" s="4" t="s">
+      <c r="AV160" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="161" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1140</v>
       </c>
@@ -27968,7 +27922,7 @@
       <c r="G161" t="s">
         <v>51</v>
       </c>
-      <c r="H161" t="s">
+      <c r="H161" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I161" t="s">
@@ -28010,7 +27964,7 @@
       <c r="U161" t="s">
         <v>55</v>
       </c>
-      <c r="V161" s="4" t="s">
+      <c r="V161" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W161" t="s">
@@ -28088,11 +28042,11 @@
       <c r="AU161" t="s">
         <v>57</v>
       </c>
-      <c r="AV161" s="4" t="s">
+      <c r="AV161" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1142</v>
       </c>
@@ -28114,7 +28068,7 @@
       <c r="G162" t="s">
         <v>51</v>
       </c>
-      <c r="H162" t="s">
+      <c r="H162" s="3" t="s">
         <v>1144</v>
       </c>
       <c r="I162" t="s">
@@ -28156,7 +28110,7 @@
       <c r="U162" t="s">
         <v>55</v>
       </c>
-      <c r="V162" s="4" t="s">
+      <c r="V162" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W162" t="s">
@@ -28234,11 +28188,11 @@
       <c r="AU162" t="s">
         <v>57</v>
       </c>
-      <c r="AV162" s="4" t="s">
+      <c r="AV162" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1147</v>
       </c>
@@ -28260,7 +28214,7 @@
       <c r="G163" t="s">
         <v>51</v>
       </c>
-      <c r="H163" t="s">
+      <c r="H163" s="3" t="s">
         <v>1149</v>
       </c>
       <c r="I163" t="s">
@@ -28302,7 +28256,7 @@
       <c r="U163" t="s">
         <v>55</v>
       </c>
-      <c r="V163" s="4" t="s">
+      <c r="V163" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W163" t="s">
@@ -28380,11 +28334,11 @@
       <c r="AU163" t="s">
         <v>57</v>
       </c>
-      <c r="AV163" s="4" t="s">
+      <c r="AV163" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1151</v>
       </c>
@@ -28406,7 +28360,7 @@
       <c r="G164" t="s">
         <v>51</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H164" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I164" t="s">
@@ -28448,7 +28402,7 @@
       <c r="U164" t="s">
         <v>55</v>
       </c>
-      <c r="V164" s="4" t="s">
+      <c r="V164" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W164" t="s">
@@ -28526,11 +28480,11 @@
       <c r="AU164" t="s">
         <v>57</v>
       </c>
-      <c r="AV164" s="4" t="s">
+      <c r="AV164" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1153</v>
       </c>
@@ -28552,7 +28506,7 @@
       <c r="G165" t="s">
         <v>51</v>
       </c>
-      <c r="H165" t="s">
+      <c r="H165" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I165" t="s">
@@ -28594,7 +28548,7 @@
       <c r="U165" t="s">
         <v>55</v>
       </c>
-      <c r="V165" s="4" t="s">
+      <c r="V165" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W165" t="s">
@@ -28672,11 +28626,11 @@
       <c r="AU165" t="s">
         <v>57</v>
       </c>
-      <c r="AV165" s="4" t="s">
+      <c r="AV165" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1155</v>
       </c>
@@ -28698,7 +28652,7 @@
       <c r="G166" t="s">
         <v>51</v>
       </c>
-      <c r="H166" t="s">
+      <c r="H166" s="3" t="s">
         <v>570</v>
       </c>
       <c r="I166" t="s">
@@ -28740,7 +28694,7 @@
       <c r="U166" t="s">
         <v>55</v>
       </c>
-      <c r="V166" s="4" t="s">
+      <c r="V166" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W166" t="s">
@@ -28818,11 +28772,11 @@
       <c r="AU166" t="s">
         <v>57</v>
       </c>
-      <c r="AV166" s="4" t="s">
+      <c r="AV166" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1158</v>
       </c>
@@ -28844,7 +28798,7 @@
       <c r="G167" t="s">
         <v>51</v>
       </c>
-      <c r="H167" t="s">
+      <c r="H167" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I167" t="s">
@@ -28886,7 +28840,7 @@
       <c r="U167" t="s">
         <v>55</v>
       </c>
-      <c r="V167" s="4" t="s">
+      <c r="V167" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W167" t="s">
@@ -28964,11 +28918,11 @@
       <c r="AU167" t="s">
         <v>57</v>
       </c>
-      <c r="AV167" s="4" t="s">
+      <c r="AV167" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1160</v>
       </c>
@@ -28990,7 +28944,7 @@
       <c r="G168" t="s">
         <v>51</v>
       </c>
-      <c r="H168" t="s">
+      <c r="H168" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I168" t="s">
@@ -29032,7 +28986,7 @@
       <c r="U168" t="s">
         <v>55</v>
       </c>
-      <c r="V168" s="4" t="s">
+      <c r="V168" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W168" t="s">
@@ -29110,11 +29064,11 @@
       <c r="AU168" t="s">
         <v>57</v>
       </c>
-      <c r="AV168" s="4" t="s">
+      <c r="AV168" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1162</v>
       </c>
@@ -29136,7 +29090,7 @@
       <c r="G169" t="s">
         <v>51</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H169" s="3" t="s">
         <v>570</v>
       </c>
       <c r="I169" t="s">
@@ -29178,7 +29132,7 @@
       <c r="U169" t="s">
         <v>55</v>
       </c>
-      <c r="V169" s="4" t="s">
+      <c r="V169" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W169" t="s">
@@ -29256,11 +29210,11 @@
       <c r="AU169" t="s">
         <v>57</v>
       </c>
-      <c r="AV169" s="4" t="s">
+      <c r="AV169" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1165</v>
       </c>
@@ -29282,7 +29236,7 @@
       <c r="G170" t="s">
         <v>51</v>
       </c>
-      <c r="H170" t="s">
+      <c r="H170" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I170" t="s">
@@ -29324,7 +29278,7 @@
       <c r="U170" t="s">
         <v>55</v>
       </c>
-      <c r="V170" s="4" t="s">
+      <c r="V170" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W170" t="s">
@@ -29402,11 +29356,11 @@
       <c r="AU170" t="s">
         <v>57</v>
       </c>
-      <c r="AV170" s="4" t="s">
+      <c r="AV170" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1167</v>
       </c>
@@ -29428,7 +29382,7 @@
       <c r="G171" t="s">
         <v>51</v>
       </c>
-      <c r="H171" t="s">
+      <c r="H171" s="3" t="s">
         <v>570</v>
       </c>
       <c r="I171" t="s">
@@ -29470,7 +29424,7 @@
       <c r="U171" t="s">
         <v>1170</v>
       </c>
-      <c r="V171" s="4" t="s">
+      <c r="V171" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W171" t="s">
@@ -29548,11 +29502,11 @@
       <c r="AU171" t="s">
         <v>1171</v>
       </c>
-      <c r="AV171" s="4" t="s">
+      <c r="AV171" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1172</v>
       </c>
@@ -29574,7 +29528,7 @@
       <c r="G172" t="s">
         <v>51</v>
       </c>
-      <c r="H172" t="s">
+      <c r="H172" s="3" t="s">
         <v>1174</v>
       </c>
       <c r="I172" t="s">
@@ -29616,7 +29570,7 @@
       <c r="U172" t="s">
         <v>1177</v>
       </c>
-      <c r="V172" s="4" t="s">
+      <c r="V172" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W172" t="s">
@@ -29694,11 +29648,11 @@
       <c r="AU172" t="s">
         <v>57</v>
       </c>
-      <c r="AV172" s="4" t="s">
+      <c r="AV172" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1178</v>
       </c>
@@ -29720,7 +29674,7 @@
       <c r="G173" t="s">
         <v>51</v>
       </c>
-      <c r="H173" t="s">
+      <c r="H173" s="3" t="s">
         <v>1180</v>
       </c>
       <c r="I173" t="s">
@@ -29762,7 +29716,7 @@
       <c r="U173" t="s">
         <v>1188</v>
       </c>
-      <c r="V173" s="4" t="s">
+      <c r="V173" s="3" t="s">
         <v>1189</v>
       </c>
       <c r="W173" t="s">
@@ -29840,11 +29794,11 @@
       <c r="AU173" t="s">
         <v>1195</v>
       </c>
-      <c r="AV173" s="4" t="s">
+      <c r="AV173" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="174" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1197</v>
       </c>
@@ -29866,7 +29820,7 @@
       <c r="G174" t="s">
         <v>51</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H174" s="3" t="s">
         <v>1199</v>
       </c>
       <c r="I174" t="s">
@@ -29908,7 +29862,7 @@
       <c r="U174" t="s">
         <v>1209</v>
       </c>
-      <c r="V174" s="4" t="s">
+      <c r="V174" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="W174" t="s">
@@ -29986,11 +29940,11 @@
       <c r="AU174" t="s">
         <v>1213</v>
       </c>
-      <c r="AV174" s="4" t="s">
+      <c r="AV174" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="175" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1215</v>
       </c>
@@ -30012,7 +29966,7 @@
       <c r="G175" t="s">
         <v>51</v>
       </c>
-      <c r="H175" t="s">
+      <c r="H175" s="3" t="s">
         <v>52</v>
       </c>
       <c r="I175" t="s">
@@ -30054,7 +30008,7 @@
       <c r="U175" t="s">
         <v>55</v>
       </c>
-      <c r="V175" s="4" t="s">
+      <c r="V175" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W175" t="s">
@@ -30132,11 +30086,11 @@
       <c r="AU175" t="s">
         <v>57</v>
       </c>
-      <c r="AV175" s="4" t="s">
+      <c r="AV175" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1217</v>
       </c>
@@ -30158,7 +30112,7 @@
       <c r="G176" t="s">
         <v>51</v>
       </c>
-      <c r="H176" t="s">
+      <c r="H176" s="3" t="s">
         <v>1219</v>
       </c>
       <c r="I176" t="s">
@@ -30200,7 +30154,7 @@
       <c r="U176" t="s">
         <v>55</v>
       </c>
-      <c r="V176" s="4" t="s">
+      <c r="V176" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W176" t="s">
@@ -30278,11 +30232,11 @@
       <c r="AU176" t="s">
         <v>57</v>
       </c>
-      <c r="AV176" s="4" t="s">
+      <c r="AV176" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1222</v>
       </c>
@@ -30304,7 +30258,7 @@
       <c r="G177" t="s">
         <v>51</v>
       </c>
-      <c r="H177" t="s">
+      <c r="H177" s="3" t="s">
         <v>570</v>
       </c>
       <c r="I177" t="s">
@@ -30346,7 +30300,7 @@
       <c r="U177" t="s">
         <v>55</v>
       </c>
-      <c r="V177" s="4" t="s">
+      <c r="V177" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W177" t="s">
@@ -30424,11 +30378,11 @@
       <c r="AU177" t="s">
         <v>57</v>
       </c>
-      <c r="AV177" s="4" t="s">
+      <c r="AV177" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1225</v>
       </c>
@@ -30450,7 +30404,7 @@
       <c r="G178" t="s">
         <v>51</v>
       </c>
-      <c r="H178" t="s">
+      <c r="H178" s="3" t="s">
         <v>1227</v>
       </c>
       <c r="I178" t="s">
@@ -30492,7 +30446,7 @@
       <c r="U178" t="s">
         <v>1234</v>
       </c>
-      <c r="V178" s="4" t="s">
+      <c r="V178" s="3" t="s">
         <v>1235</v>
       </c>
       <c r="W178" t="s">
@@ -30570,11 +30524,11 @@
       <c r="AU178" t="s">
         <v>1240</v>
       </c>
-      <c r="AV178" s="4" t="s">
+      <c r="AV178" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="179" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1242</v>
       </c>
@@ -30596,7 +30550,7 @@
       <c r="G179" t="s">
         <v>51</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="3" t="s">
         <v>1244</v>
       </c>
       <c r="I179" t="s">
@@ -30638,7 +30592,7 @@
       <c r="U179" t="s">
         <v>55</v>
       </c>
-      <c r="V179" s="4" t="s">
+      <c r="V179" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W179" t="s">
@@ -30716,11 +30670,11 @@
       <c r="AU179" t="s">
         <v>57</v>
       </c>
-      <c r="AV179" s="4" t="s">
+      <c r="AV179" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1254</v>
       </c>
@@ -30742,7 +30696,7 @@
       <c r="G180" t="s">
         <v>51</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="3" t="s">
         <v>1256</v>
       </c>
       <c r="I180" t="s">
@@ -30784,7 +30738,7 @@
       <c r="U180" t="s">
         <v>55</v>
       </c>
-      <c r="V180" s="4" t="s">
+      <c r="V180" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W180" t="s">
@@ -30862,11 +30816,11 @@
       <c r="AU180" t="s">
         <v>57</v>
       </c>
-      <c r="AV180" s="4" t="s">
+      <c r="AV180" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1258</v>
       </c>
@@ -30888,7 +30842,7 @@
       <c r="G181" t="s">
         <v>51</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H181" s="3" t="s">
         <v>1260</v>
       </c>
       <c r="I181" t="s">
@@ -30930,7 +30884,7 @@
       <c r="U181" t="s">
         <v>55</v>
       </c>
-      <c r="V181" s="4" t="s">
+      <c r="V181" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W181" t="s">
@@ -31008,11 +30962,11 @@
       <c r="AU181" t="s">
         <v>57</v>
       </c>
-      <c r="AV181" s="4" t="s">
+      <c r="AV181" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1279</v>
       </c>
@@ -31034,7 +30988,7 @@
       <c r="G182" t="s">
         <v>51</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H182" s="3" t="s">
         <v>1281</v>
       </c>
       <c r="I182" t="s">
@@ -31076,7 +31030,7 @@
       <c r="U182" t="s">
         <v>55</v>
       </c>
-      <c r="V182" s="4" t="s">
+      <c r="V182" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W182" t="s">
@@ -31154,11 +31108,11 @@
       <c r="AU182" t="s">
         <v>57</v>
       </c>
-      <c r="AV182" s="4" t="s">
+      <c r="AV182" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1306</v>
       </c>
@@ -31180,7 +31134,7 @@
       <c r="G183" t="s">
         <v>51</v>
       </c>
-      <c r="H183" t="s">
+      <c r="H183" s="3" t="s">
         <v>1308</v>
       </c>
       <c r="I183" t="s">
@@ -31222,7 +31176,7 @@
       <c r="U183" t="s">
         <v>1318</v>
       </c>
-      <c r="V183" s="4" t="s">
+      <c r="V183" s="3" t="s">
         <v>1319</v>
       </c>
       <c r="W183" t="s">
@@ -31300,11 +31254,11 @@
       <c r="AU183" t="s">
         <v>57</v>
       </c>
-      <c r="AV183" s="4" t="s">
+      <c r="AV183" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1325</v>
       </c>
@@ -31326,7 +31280,7 @@
       <c r="G184" t="s">
         <v>51</v>
       </c>
-      <c r="H184" t="s">
+      <c r="H184" s="3" t="s">
         <v>1327</v>
       </c>
       <c r="I184" t="s">
@@ -31368,7 +31322,7 @@
       <c r="U184" t="s">
         <v>55</v>
       </c>
-      <c r="V184" s="4" t="s">
+      <c r="V184" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W184" t="s">
@@ -31446,11 +31400,11 @@
       <c r="AU184" t="s">
         <v>57</v>
       </c>
-      <c r="AV184" s="4" t="s">
+      <c r="AV184" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="185" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1330</v>
       </c>
@@ -31472,7 +31426,7 @@
       <c r="G185" t="s">
         <v>51</v>
       </c>
-      <c r="H185" t="s">
+      <c r="H185" s="3" t="s">
         <v>1332</v>
       </c>
       <c r="I185" t="s">
@@ -31514,7 +31468,7 @@
       <c r="U185" t="s">
         <v>55</v>
       </c>
-      <c r="V185" s="4" t="s">
+      <c r="V185" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W185" t="s">
@@ -31592,11 +31546,11 @@
       <c r="AU185" t="s">
         <v>57</v>
       </c>
-      <c r="AV185" s="4" t="s">
+      <c r="AV185" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="186" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1334</v>
       </c>
@@ -31618,7 +31572,7 @@
       <c r="G186" t="s">
         <v>51</v>
       </c>
-      <c r="H186" t="s">
+      <c r="H186" s="3" t="s">
         <v>1336</v>
       </c>
       <c r="I186" t="s">
@@ -31660,7 +31614,7 @@
       <c r="U186" t="s">
         <v>55</v>
       </c>
-      <c r="V186" s="4" t="s">
+      <c r="V186" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W186" t="s">
@@ -31738,11 +31692,11 @@
       <c r="AU186" t="s">
         <v>57</v>
       </c>
-      <c r="AV186" s="4" t="s">
+      <c r="AV186" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="187" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1339</v>
       </c>
@@ -31764,7 +31718,7 @@
       <c r="G187" t="s">
         <v>51</v>
       </c>
-      <c r="H187" t="s">
+      <c r="H187" s="3" t="s">
         <v>1341</v>
       </c>
       <c r="I187" t="s">
@@ -31806,7 +31760,7 @@
       <c r="U187" t="s">
         <v>55</v>
       </c>
-      <c r="V187" s="4" t="s">
+      <c r="V187" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W187" t="s">
@@ -31884,11 +31838,11 @@
       <c r="AU187" t="s">
         <v>57</v>
       </c>
-      <c r="AV187" s="4" t="s">
+      <c r="AV187" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="188" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1344</v>
       </c>
@@ -31910,7 +31864,7 @@
       <c r="G188" t="s">
         <v>51</v>
       </c>
-      <c r="H188" t="s">
+      <c r="H188" s="3" t="s">
         <v>1346</v>
       </c>
       <c r="I188" t="s">
@@ -31952,7 +31906,7 @@
       <c r="U188" t="s">
         <v>1349</v>
       </c>
-      <c r="V188" s="4" t="s">
+      <c r="V188" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W188" t="s">
@@ -32030,11 +31984,11 @@
       <c r="AU188" t="s">
         <v>57</v>
       </c>
-      <c r="AV188" s="4" t="s">
+      <c r="AV188" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="189" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1350</v>
       </c>
@@ -32056,7 +32010,7 @@
       <c r="G189" t="s">
         <v>51</v>
       </c>
-      <c r="H189" t="s">
+      <c r="H189" s="3" t="s">
         <v>1352</v>
       </c>
       <c r="I189" t="s">
@@ -32098,7 +32052,7 @@
       <c r="U189" t="s">
         <v>55</v>
       </c>
-      <c r="V189" s="4" t="s">
+      <c r="V189" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W189" t="s">
@@ -32176,11 +32130,11 @@
       <c r="AU189" t="s">
         <v>57</v>
       </c>
-      <c r="AV189" s="4" t="s">
+      <c r="AV189" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="190" spans="1:48" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1355</v>
       </c>
@@ -32202,7 +32156,7 @@
       <c r="G190" t="s">
         <v>51</v>
       </c>
-      <c r="H190" t="s">
+      <c r="H190" s="3" t="s">
         <v>1357</v>
       </c>
       <c r="I190" t="s">
@@ -32244,7 +32198,7 @@
       <c r="U190" t="s">
         <v>55</v>
       </c>
-      <c r="V190" s="4" t="s">
+      <c r="V190" s="3" t="s">
         <v>56</v>
       </c>
       <c r="W190" t="s">
@@ -32322,7 +32276,7 @@
       <c r="AU190" t="s">
         <v>57</v>
       </c>
-      <c r="AV190" s="4" t="s">
+      <c r="AV190" t="s">
         <v>57</v>
       </c>
     </row>
